--- a/data_cleaned_4.xlsx
+++ b/data_cleaned_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\www\Desktop\Portfolio\PoC dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C31D4A0-9272-4D01-9877-DD239955E70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3495BD4-CEE7-44FA-8982-0F10BD9BE1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$4:$H$45</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -4012,7 +4012,7 @@
   <dimension ref="A1:K295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -4037,16 +4037,16 @@
         <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>67</v>
@@ -4072,16 +4072,16 @@
         <v>51</v>
       </c>
       <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>11</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
       </c>
       <c r="I2" t="s">
         <v>59</v>
@@ -4110,13 +4110,13 @@
         <v>9</v>
       </c>
       <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>8</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
       </c>
       <c r="I3" t="s">
         <v>59</v>
@@ -4142,16 +4142,16 @@
         <v>51</v>
       </c>
       <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
       </c>
       <c r="I4" t="s">
         <v>58</v>
@@ -4180,13 +4180,13 @@
         <v>5</v>
       </c>
       <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>11</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
       </c>
       <c r="I5" t="s">
         <v>59</v>
@@ -4212,16 +4212,16 @@
         <v>51</v>
       </c>
       <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>11</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
       </c>
       <c r="I6" t="s">
         <v>59</v>
@@ -4247,16 +4247,16 @@
         <v>51</v>
       </c>
       <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
         <v>7</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
         <v>57</v>
@@ -4282,16 +4282,16 @@
         <v>51</v>
       </c>
       <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>9</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
       </c>
       <c r="I8" t="s">
         <v>57</v>
@@ -4317,13 +4317,13 @@
         <v>51</v>
       </c>
       <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0</v>
-      </c>
-      <c r="G9">
-        <v>9</v>
       </c>
       <c r="H9">
         <v>9</v>
@@ -4352,16 +4352,16 @@
         <v>51</v>
       </c>
       <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
         <v>10</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>9</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>10</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
       </c>
       <c r="I10" t="s">
         <v>57</v>
@@ -4387,16 +4387,16 @@
         <v>51</v>
       </c>
       <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>10</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>9</v>
-      </c>
-      <c r="H11">
-        <v>8</v>
       </c>
       <c r="I11" t="s">
         <v>57</v>
@@ -4425,13 +4425,13 @@
         <v>4</v>
       </c>
       <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
         <v>8</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>5</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
       </c>
       <c r="I12" t="s">
         <v>57</v>
@@ -4457,16 +4457,16 @@
         <v>51</v>
       </c>
       <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>10</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
       </c>
       <c r="I13" t="s">
         <v>57</v>
@@ -4492,16 +4492,16 @@
         <v>51</v>
       </c>
       <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
         <v>8</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>11</v>
-      </c>
-      <c r="H14">
-        <v>4</v>
       </c>
       <c r="I14" t="s">
         <v>57</v>
@@ -4527,16 +4527,16 @@
         <v>51</v>
       </c>
       <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>10</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>6</v>
-      </c>
-      <c r="H15">
-        <v>11</v>
       </c>
       <c r="I15" t="s">
         <v>57</v>
@@ -4562,16 +4562,16 @@
         <v>51</v>
       </c>
       <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
         <v>9</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>8</v>
-      </c>
-      <c r="H16">
-        <v>10</v>
       </c>
       <c r="I16" t="s">
         <v>57</v>
@@ -4597,13 +4597,13 @@
         <v>51</v>
       </c>
       <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
         <v>1</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>11</v>
-      </c>
-      <c r="G17">
-        <v>9</v>
       </c>
       <c r="H17">
         <v>9</v>
@@ -4632,16 +4632,16 @@
         <v>51</v>
       </c>
       <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
         <v>1</v>
-      </c>
-      <c r="F18">
-        <v>11</v>
       </c>
       <c r="G18">
         <v>11</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" t="s">
         <v>57</v>
@@ -4667,16 +4667,16 @@
         <v>51</v>
       </c>
       <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
         <v>5</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>8</v>
-      </c>
-      <c r="H19">
-        <v>6</v>
       </c>
       <c r="I19" t="s">
         <v>58</v>
@@ -4702,16 +4702,16 @@
         <v>51</v>
       </c>
       <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
         <v>7</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>4</v>
-      </c>
-      <c r="H20">
-        <v>10</v>
       </c>
       <c r="I20" t="s">
         <v>57</v>
@@ -4737,16 +4737,16 @@
         <v>51</v>
       </c>
       <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>7</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>11</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
       </c>
       <c r="I21" t="s">
         <v>57</v>
@@ -4772,16 +4772,16 @@
         <v>51</v>
       </c>
       <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
         <v>4</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>10</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>7</v>
-      </c>
-      <c r="H22">
-        <v>5</v>
       </c>
       <c r="I22" t="s">
         <v>57</v>
@@ -4807,16 +4807,16 @@
         <v>51</v>
       </c>
       <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
         <v>10</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>6</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>10</v>
-      </c>
-      <c r="H23">
-        <v>8</v>
       </c>
       <c r="I23" t="s">
         <v>58</v>
@@ -4842,16 +4842,16 @@
         <v>51</v>
       </c>
       <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24">
         <v>10</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>5</v>
-      </c>
-      <c r="H24">
-        <v>7</v>
       </c>
       <c r="I24" t="s">
         <v>57</v>
@@ -4877,16 +4877,16 @@
         <v>51</v>
       </c>
       <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
         <v>9</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>4</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>10</v>
-      </c>
-      <c r="H25">
-        <v>8</v>
       </c>
       <c r="I25" t="s">
         <v>57</v>
@@ -4912,13 +4912,13 @@
         <v>51</v>
       </c>
       <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26">
         <v>5</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>3</v>
-      </c>
-      <c r="G26">
-        <v>11</v>
       </c>
       <c r="H26">
         <v>11</v>
@@ -4947,13 +4947,13 @@
         <v>51</v>
       </c>
       <c r="E27">
+        <v>9</v>
+      </c>
+      <c r="F27">
         <v>4</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>10</v>
-      </c>
-      <c r="G27">
-        <v>9</v>
       </c>
       <c r="H27">
         <v>9</v>
@@ -4982,16 +4982,16 @@
         <v>51</v>
       </c>
       <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
         <v>4</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>7</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>6</v>
-      </c>
-      <c r="H28">
-        <v>5</v>
       </c>
       <c r="I28" t="s">
         <v>57</v>
@@ -5017,16 +5017,16 @@
         <v>51</v>
       </c>
       <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
         <v>5</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>8</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>11</v>
-      </c>
-      <c r="H29">
-        <v>7</v>
       </c>
       <c r="I29" t="s">
         <v>57</v>
@@ -5052,16 +5052,16 @@
         <v>51</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F30">
         <v>6</v>
       </c>
       <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30">
         <v>10</v>
-      </c>
-      <c r="H30">
-        <v>9</v>
       </c>
       <c r="I30" t="s">
         <v>57</v>
@@ -5087,16 +5087,16 @@
         <v>51</v>
       </c>
       <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
         <v>7</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>3</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>11</v>
-      </c>
-      <c r="H31">
-        <v>5</v>
       </c>
       <c r="I31" t="s">
         <v>57</v>
@@ -5122,16 +5122,16 @@
         <v>51</v>
       </c>
       <c r="E32">
+        <v>9</v>
+      </c>
+      <c r="F32">
         <v>8</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>7</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>5</v>
-      </c>
-      <c r="H32">
-        <v>9</v>
       </c>
       <c r="I32" t="s">
         <v>57</v>
@@ -5157,16 +5157,16 @@
         <v>51</v>
       </c>
       <c r="E33">
+        <v>11</v>
+      </c>
+      <c r="F33">
         <v>4</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>8</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>4</v>
-      </c>
-      <c r="H33">
-        <v>11</v>
       </c>
       <c r="I33" t="s">
         <v>57</v>
@@ -5192,16 +5192,16 @@
         <v>51</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F34">
         <v>10</v>
       </c>
       <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
         <v>4</v>
-      </c>
-      <c r="H34">
-        <v>7</v>
       </c>
       <c r="I34" t="s">
         <v>57</v>
@@ -5227,13 +5227,13 @@
         <v>51</v>
       </c>
       <c r="E35">
+        <v>9</v>
+      </c>
+      <c r="F35">
         <v>4</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>2</v>
-      </c>
-      <c r="G35">
-        <v>9</v>
       </c>
       <c r="H35">
         <v>9</v>
@@ -5262,16 +5262,16 @@
         <v>51</v>
       </c>
       <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
         <v>9</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>8</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>7</v>
-      </c>
-      <c r="H36">
-        <v>5</v>
       </c>
       <c r="I36" t="s">
         <v>57</v>
@@ -5297,16 +5297,16 @@
         <v>51</v>
       </c>
       <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>11</v>
-      </c>
-      <c r="H37">
-        <v>4</v>
       </c>
       <c r="I37" t="s">
         <v>57</v>
@@ -5332,16 +5332,16 @@
         <v>51</v>
       </c>
       <c r="E38">
+        <v>11</v>
+      </c>
+      <c r="F38">
         <v>7</v>
-      </c>
-      <c r="F38">
-        <v>9</v>
       </c>
       <c r="G38">
         <v>9</v>
       </c>
       <c r="H38">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I38" t="s">
         <v>57</v>
@@ -5373,10 +5373,10 @@
         <v>5</v>
       </c>
       <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
         <v>10</v>
-      </c>
-      <c r="H39">
-        <v>5</v>
       </c>
       <c r="I39" t="s">
         <v>57</v>
@@ -5402,13 +5402,13 @@
         <v>51</v>
       </c>
       <c r="E40">
+        <v>11</v>
+      </c>
+      <c r="F40">
         <v>4</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>5</v>
-      </c>
-      <c r="G40">
-        <v>11</v>
       </c>
       <c r="H40">
         <v>11</v>
@@ -5437,16 +5437,16 @@
         <v>51</v>
       </c>
       <c r="E41">
+        <v>9</v>
+      </c>
+      <c r="F41">
         <v>3</v>
-      </c>
-      <c r="F41">
-        <v>5</v>
       </c>
       <c r="G41">
         <v>5</v>
       </c>
       <c r="H41">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I41" t="s">
         <v>57</v>
@@ -5472,16 +5472,16 @@
         <v>51</v>
       </c>
       <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42">
         <v>3</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>2</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>5</v>
-      </c>
-      <c r="H42">
-        <v>8</v>
       </c>
       <c r="I42" t="s">
         <v>57</v>
@@ -5510,13 +5510,13 @@
         <v>10</v>
       </c>
       <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
         <v>5</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>7</v>
-      </c>
-      <c r="H43">
-        <v>10</v>
       </c>
       <c r="I43" t="s">
         <v>57</v>
@@ -5545,13 +5545,13 @@
         <v>8</v>
       </c>
       <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44">
         <v>11</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>10</v>
-      </c>
-      <c r="H44">
-        <v>8</v>
       </c>
       <c r="I44" t="s">
         <v>58</v>
@@ -5577,13 +5577,13 @@
         <v>51</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45">
         <v>6</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H45">
         <v>5</v>
@@ -5612,16 +5612,16 @@
         <v>51</v>
       </c>
       <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46">
         <v>2</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>0</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>11</v>
-      </c>
-      <c r="H46">
-        <v>6</v>
       </c>
       <c r="I46" t="s">
         <v>57</v>
@@ -5647,16 +5647,16 @@
         <v>51</v>
       </c>
       <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="F47">
         <v>6</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>7</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>11</v>
-      </c>
-      <c r="H47">
-        <v>8</v>
       </c>
       <c r="I47" t="s">
         <v>57</v>
@@ -5682,16 +5682,16 @@
         <v>51</v>
       </c>
       <c r="E48">
+        <v>9</v>
+      </c>
+      <c r="F48">
         <v>10</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>4</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>7</v>
-      </c>
-      <c r="H48">
-        <v>9</v>
       </c>
       <c r="I48" t="s">
         <v>58</v>
@@ -5717,16 +5717,16 @@
         <v>51</v>
       </c>
       <c r="E49">
+        <v>11</v>
+      </c>
+      <c r="F49">
         <v>9</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>7</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>8</v>
-      </c>
-      <c r="H49">
-        <v>11</v>
       </c>
       <c r="I49" t="s">
         <v>58</v>
@@ -5752,16 +5752,16 @@
         <v>51</v>
       </c>
       <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
         <v>11</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>5</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>4</v>
-      </c>
-      <c r="H50">
-        <v>10</v>
       </c>
       <c r="I50" t="s">
         <v>58</v>
@@ -5787,16 +5787,16 @@
         <v>51</v>
       </c>
       <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51">
         <v>4</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>9</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>8</v>
-      </c>
-      <c r="H51">
-        <v>6</v>
       </c>
       <c r="I51" t="s">
         <v>57</v>
@@ -5822,16 +5822,16 @@
         <v>51</v>
       </c>
       <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
         <v>5</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>8</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>6</v>
-      </c>
-      <c r="H52">
-        <v>4</v>
       </c>
       <c r="I52" t="s">
         <v>57</v>
@@ -5857,16 +5857,16 @@
         <v>51</v>
       </c>
       <c r="E53">
+        <v>8</v>
+      </c>
+      <c r="F53">
         <v>3</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>9</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>11</v>
-      </c>
-      <c r="H53">
-        <v>8</v>
       </c>
       <c r="I53" t="s">
         <v>57</v>
@@ -5892,16 +5892,16 @@
         <v>51</v>
       </c>
       <c r="E54">
+        <v>11</v>
+      </c>
+      <c r="F54">
         <v>7</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>3</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>8</v>
-      </c>
-      <c r="H54">
-        <v>11</v>
       </c>
       <c r="I54" t="s">
         <v>57</v>
@@ -5927,16 +5927,16 @@
         <v>51</v>
       </c>
       <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
         <v>11</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>8</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>7</v>
-      </c>
-      <c r="H55">
-        <v>4</v>
       </c>
       <c r="I55" t="s">
         <v>57</v>
@@ -5965,13 +5965,13 @@
         <v>4</v>
       </c>
       <c r="F56">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G56">
         <v>10</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I56" t="s">
         <v>57</v>
@@ -5997,16 +5997,16 @@
         <v>51</v>
       </c>
       <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
         <v>4</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>0</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>11</v>
-      </c>
-      <c r="H57">
-        <v>10</v>
       </c>
       <c r="I57" t="s">
         <v>57</v>
@@ -6032,16 +6032,16 @@
         <v>51</v>
       </c>
       <c r="E58">
+        <v>8</v>
+      </c>
+      <c r="F58">
         <v>0</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>4</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>9</v>
-      </c>
-      <c r="H58">
-        <v>8</v>
       </c>
       <c r="I58" t="s">
         <v>57</v>
@@ -6067,16 +6067,16 @@
         <v>51</v>
       </c>
       <c r="E59">
+        <v>8</v>
+      </c>
+      <c r="F59">
         <v>11</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>0</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>10</v>
-      </c>
-      <c r="H59">
-        <v>8</v>
       </c>
       <c r="I59" t="s">
         <v>57</v>
@@ -6102,16 +6102,16 @@
         <v>51</v>
       </c>
       <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60">
         <v>3</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>4</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>10</v>
-      </c>
-      <c r="H60">
-        <v>6</v>
       </c>
       <c r="I60" t="s">
         <v>57</v>
@@ -6137,16 +6137,16 @@
         <v>51</v>
       </c>
       <c r="E61">
+        <v>11</v>
+      </c>
+      <c r="F61">
         <v>3</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>5</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>10</v>
-      </c>
-      <c r="H61">
-        <v>11</v>
       </c>
       <c r="I61" t="s">
         <v>57</v>
@@ -6172,16 +6172,16 @@
         <v>51</v>
       </c>
       <c r="E62">
+        <v>8</v>
+      </c>
+      <c r="F62">
         <v>11</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>8</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>4</v>
-      </c>
-      <c r="H62">
-        <v>8</v>
       </c>
       <c r="I62" t="s">
         <v>57</v>
@@ -6207,16 +6207,16 @@
         <v>51</v>
       </c>
       <c r="E63">
+        <v>10</v>
+      </c>
+      <c r="F63">
         <v>8</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>10</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>7</v>
-      </c>
-      <c r="H63">
-        <v>10</v>
       </c>
       <c r="I63" t="s">
         <v>57</v>
@@ -6242,16 +6242,16 @@
         <v>51</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F64">
         <v>5</v>
       </c>
       <c r="G64">
+        <v>5</v>
+      </c>
+      <c r="H64">
         <v>11</v>
-      </c>
-      <c r="H64">
-        <v>10</v>
       </c>
       <c r="I64" t="s">
         <v>57</v>
@@ -6277,13 +6277,13 @@
         <v>51</v>
       </c>
       <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
         <v>5</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>7</v>
-      </c>
-      <c r="G65">
-        <v>4</v>
       </c>
       <c r="H65">
         <v>4</v>
@@ -6315,13 +6315,13 @@
         <v>7</v>
       </c>
       <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66">
         <v>3</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>10</v>
-      </c>
-      <c r="H66">
-        <v>7</v>
       </c>
       <c r="I66" t="s">
         <v>57</v>
@@ -6347,13 +6347,13 @@
         <v>51</v>
       </c>
       <c r="E67">
+        <v>7</v>
+      </c>
+      <c r="F67">
         <v>3</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>8</v>
-      </c>
-      <c r="G67">
-        <v>7</v>
       </c>
       <c r="H67">
         <v>7</v>
@@ -6382,16 +6382,16 @@
         <v>51</v>
       </c>
       <c r="E68">
+        <v>7</v>
+      </c>
+      <c r="F68">
         <v>11</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>3</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>11</v>
-      </c>
-      <c r="H68">
-        <v>7</v>
       </c>
       <c r="I68" t="s">
         <v>57</v>
@@ -6417,16 +6417,16 @@
         <v>51</v>
       </c>
       <c r="E69">
+        <v>6</v>
+      </c>
+      <c r="F69">
         <v>8</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>9</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>4</v>
-      </c>
-      <c r="H69">
-        <v>6</v>
       </c>
       <c r="I69" t="s">
         <v>58</v>
@@ -6452,16 +6452,16 @@
         <v>51</v>
       </c>
       <c r="E70">
+        <v>8</v>
+      </c>
+      <c r="F70">
         <v>9</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>10</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>4</v>
-      </c>
-      <c r="H70">
-        <v>8</v>
       </c>
       <c r="I70" t="s">
         <v>57</v>
@@ -6487,16 +6487,16 @@
         <v>51</v>
       </c>
       <c r="E71">
+        <v>8</v>
+      </c>
+      <c r="F71">
         <v>6</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>8</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>7</v>
-      </c>
-      <c r="H71">
-        <v>8</v>
       </c>
       <c r="I71" t="s">
         <v>57</v>
@@ -6522,16 +6522,16 @@
         <v>51</v>
       </c>
       <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
         <v>11</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>10</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>4</v>
-      </c>
-      <c r="H72">
-        <v>5</v>
       </c>
       <c r="I72" t="s">
         <v>57</v>
@@ -6557,16 +6557,16 @@
         <v>51</v>
       </c>
       <c r="E73">
+        <v>8</v>
+      </c>
+      <c r="F73">
         <v>4</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>7</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>11</v>
-      </c>
-      <c r="H73">
-        <v>8</v>
       </c>
       <c r="I73" t="s">
         <v>57</v>
@@ -6592,16 +6592,16 @@
         <v>51</v>
       </c>
       <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74">
         <v>5</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>8</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>7</v>
-      </c>
-      <c r="H74">
-        <v>10</v>
       </c>
       <c r="I74" t="s">
         <v>57</v>
@@ -6627,16 +6627,16 @@
         <v>51</v>
       </c>
       <c r="E75">
+        <v>10</v>
+      </c>
+      <c r="F75">
         <v>9</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>10</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>5</v>
-      </c>
-      <c r="H75">
-        <v>10</v>
       </c>
       <c r="I75" t="s">
         <v>57</v>
@@ -6662,16 +6662,16 @@
         <v>51</v>
       </c>
       <c r="E76">
+        <v>6</v>
+      </c>
+      <c r="F76">
         <v>7</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>3</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>8</v>
-      </c>
-      <c r="H76">
-        <v>6</v>
       </c>
       <c r="I76" t="s">
         <v>57</v>
@@ -6697,16 +6697,16 @@
         <v>51</v>
       </c>
       <c r="E77">
+        <v>6</v>
+      </c>
+      <c r="F77">
         <v>2</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>7</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>9</v>
-      </c>
-      <c r="H77">
-        <v>6</v>
       </c>
       <c r="I77" t="s">
         <v>57</v>
@@ -6732,16 +6732,16 @@
         <v>51</v>
       </c>
       <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78">
         <v>7</v>
-      </c>
-      <c r="F78">
-        <v>8</v>
       </c>
       <c r="G78">
         <v>8</v>
       </c>
       <c r="H78">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I78" t="s">
         <v>57</v>
@@ -6767,13 +6767,13 @@
         <v>51</v>
       </c>
       <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79">
         <v>3</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>6</v>
-      </c>
-      <c r="G79">
-        <v>5</v>
       </c>
       <c r="H79">
         <v>5</v>
@@ -6802,16 +6802,16 @@
         <v>51</v>
       </c>
       <c r="E80">
+        <v>9</v>
+      </c>
+      <c r="F80">
         <v>10</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>7</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>10</v>
-      </c>
-      <c r="H80">
-        <v>9</v>
       </c>
       <c r="I80" t="s">
         <v>57</v>
@@ -6837,13 +6837,13 @@
         <v>51</v>
       </c>
       <c r="E81">
+        <v>11</v>
+      </c>
+      <c r="F81">
         <v>2</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>5</v>
-      </c>
-      <c r="G81">
-        <v>11</v>
       </c>
       <c r="H81">
         <v>11</v>
@@ -6872,16 +6872,16 @@
         <v>51</v>
       </c>
       <c r="E82">
+        <v>11</v>
+      </c>
+      <c r="F82">
         <v>10</v>
-      </c>
-      <c r="F82">
-        <v>4</v>
       </c>
       <c r="G82">
         <v>4</v>
       </c>
       <c r="H82">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I82" t="s">
         <v>57</v>
@@ -6907,16 +6907,16 @@
         <v>51</v>
       </c>
       <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="F83">
         <v>3</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>11</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>5</v>
-      </c>
-      <c r="H83">
-        <v>10</v>
       </c>
       <c r="I83" t="s">
         <v>57</v>
@@ -6942,16 +6942,16 @@
         <v>51</v>
       </c>
       <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84">
         <v>9</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>5</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>4</v>
-      </c>
-      <c r="H84">
-        <v>10</v>
       </c>
       <c r="I84" t="s">
         <v>57</v>
@@ -6977,16 +6977,16 @@
         <v>52</v>
       </c>
       <c r="E85">
+        <v>11</v>
+      </c>
+      <c r="F85">
         <v>5</v>
-      </c>
-      <c r="F85">
-        <v>7</v>
       </c>
       <c r="G85">
         <v>7</v>
       </c>
       <c r="H85">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I85" t="s">
         <v>57</v>
@@ -7012,13 +7012,13 @@
         <v>52</v>
       </c>
       <c r="E86">
+        <v>10</v>
+      </c>
+      <c r="F86">
         <v>11</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>1</v>
-      </c>
-      <c r="G86">
-        <v>10</v>
       </c>
       <c r="H86">
         <v>10</v>
@@ -7047,13 +7047,13 @@
         <v>52</v>
       </c>
       <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87">
         <v>7</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>3</v>
-      </c>
-      <c r="G87">
-        <v>4</v>
       </c>
       <c r="H87">
         <v>4</v>
@@ -7085,13 +7085,13 @@
         <v>7</v>
       </c>
       <c r="F88">
+        <v>7</v>
+      </c>
+      <c r="G88">
         <v>1</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>11</v>
-      </c>
-      <c r="H88">
-        <v>7</v>
       </c>
       <c r="I88" t="s">
         <v>57</v>
@@ -7120,10 +7120,10 @@
         <v>6</v>
       </c>
       <c r="F89">
+        <v>6</v>
+      </c>
+      <c r="G89">
         <v>1</v>
-      </c>
-      <c r="G89">
-        <v>6</v>
       </c>
       <c r="H89">
         <v>6</v>
@@ -7152,16 +7152,16 @@
         <v>52</v>
       </c>
       <c r="E90">
+        <v>6</v>
+      </c>
+      <c r="F90">
         <v>7</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>1</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>7</v>
-      </c>
-      <c r="H90">
-        <v>6</v>
       </c>
       <c r="I90" t="s">
         <v>57</v>
@@ -7190,13 +7190,13 @@
         <v>8</v>
       </c>
       <c r="F91">
+        <v>8</v>
+      </c>
+      <c r="G91">
         <v>4</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>10</v>
-      </c>
-      <c r="H91">
-        <v>8</v>
       </c>
       <c r="I91" t="s">
         <v>57</v>
@@ -7222,16 +7222,16 @@
         <v>51</v>
       </c>
       <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92">
         <v>0</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>2</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>7</v>
-      </c>
-      <c r="H92">
-        <v>5</v>
       </c>
       <c r="I92" t="s">
         <v>57</v>
@@ -7257,16 +7257,16 @@
         <v>52</v>
       </c>
       <c r="E93">
+        <v>6</v>
+      </c>
+      <c r="F93">
         <v>11</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>2</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>11</v>
-      </c>
-      <c r="H93">
-        <v>6</v>
       </c>
       <c r="I93" t="s">
         <v>57</v>
@@ -7292,16 +7292,16 @@
         <v>52</v>
       </c>
       <c r="E94">
+        <v>7</v>
+      </c>
+      <c r="F94">
         <v>0</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>8</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>4</v>
-      </c>
-      <c r="H94">
-        <v>7</v>
       </c>
       <c r="I94" t="s">
         <v>57</v>
@@ -7327,16 +7327,16 @@
         <v>52</v>
       </c>
       <c r="E95">
+        <v>7</v>
+      </c>
+      <c r="F95">
         <v>11</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>5</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>11</v>
-      </c>
-      <c r="H95">
-        <v>7</v>
       </c>
       <c r="I95" t="s">
         <v>57</v>
@@ -7362,16 +7362,16 @@
         <v>52</v>
       </c>
       <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96">
         <v>2</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>3</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>11</v>
-      </c>
-      <c r="H96">
-        <v>4</v>
       </c>
       <c r="I96" t="s">
         <v>57</v>
@@ -7397,16 +7397,16 @@
         <v>52</v>
       </c>
       <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97">
         <v>8</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>1</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>10</v>
-      </c>
-      <c r="H97">
-        <v>4</v>
       </c>
       <c r="I97" t="s">
         <v>57</v>
@@ -7432,16 +7432,16 @@
         <v>52</v>
       </c>
       <c r="E98">
+        <v>8</v>
+      </c>
+      <c r="F98">
         <v>1</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>6</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>5</v>
-      </c>
-      <c r="H98">
-        <v>8</v>
       </c>
       <c r="I98" t="s">
         <v>57</v>
@@ -7467,16 +7467,16 @@
         <v>52</v>
       </c>
       <c r="E99">
+        <v>6</v>
+      </c>
+      <c r="F99">
         <v>10</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>3</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>4</v>
-      </c>
-      <c r="H99">
-        <v>6</v>
       </c>
       <c r="I99" t="s">
         <v>57</v>
@@ -7502,16 +7502,16 @@
         <v>52</v>
       </c>
       <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="F100">
         <v>7</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>1</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>8</v>
-      </c>
-      <c r="H100">
-        <v>5</v>
       </c>
       <c r="I100" t="s">
         <v>57</v>
@@ -7537,13 +7537,13 @@
         <v>52</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>11</v>
@@ -7572,16 +7572,16 @@
         <v>52</v>
       </c>
       <c r="E102">
+        <v>6</v>
+      </c>
+      <c r="F102">
         <v>9</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>2</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>5</v>
-      </c>
-      <c r="H102">
-        <v>6</v>
       </c>
       <c r="I102" t="s">
         <v>57</v>
@@ -7607,16 +7607,16 @@
         <v>52</v>
       </c>
       <c r="E103">
+        <v>5</v>
+      </c>
+      <c r="F103">
         <v>4</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>8</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>4</v>
-      </c>
-      <c r="H103">
-        <v>5</v>
       </c>
       <c r="I103" t="s">
         <v>57</v>
@@ -7642,16 +7642,16 @@
         <v>52</v>
       </c>
       <c r="E104">
+        <v>5</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>8</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>4</v>
-      </c>
-      <c r="H104">
-        <v>5</v>
       </c>
       <c r="I104" t="s">
         <v>57</v>
@@ -7677,16 +7677,16 @@
         <v>52</v>
       </c>
       <c r="E105">
+        <v>8</v>
+      </c>
+      <c r="F105">
         <v>3</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>11</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>9</v>
-      </c>
-      <c r="H105">
-        <v>8</v>
       </c>
       <c r="I105" t="s">
         <v>57</v>
@@ -7712,16 +7712,16 @@
         <v>52</v>
       </c>
       <c r="E106">
+        <v>7</v>
+      </c>
+      <c r="F106">
         <v>10</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>2</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>10</v>
-      </c>
-      <c r="H106">
-        <v>7</v>
       </c>
       <c r="I106" t="s">
         <v>57</v>
@@ -7747,13 +7747,13 @@
         <v>52</v>
       </c>
       <c r="E107">
+        <v>6</v>
+      </c>
+      <c r="F107">
         <v>7</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>8</v>
-      </c>
-      <c r="G107">
-        <v>6</v>
       </c>
       <c r="H107">
         <v>6</v>
@@ -7782,16 +7782,16 @@
         <v>52</v>
       </c>
       <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108">
         <v>7</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>10</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>7</v>
-      </c>
-      <c r="H108">
-        <v>4</v>
       </c>
       <c r="I108" t="s">
         <v>57</v>
@@ -7817,16 +7817,16 @@
         <v>52</v>
       </c>
       <c r="E109">
+        <v>9</v>
+      </c>
+      <c r="F109">
         <v>4</v>
-      </c>
-      <c r="F109">
-        <v>5</v>
       </c>
       <c r="G109">
         <v>5</v>
       </c>
       <c r="H109">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I109" t="s">
         <v>57</v>
@@ -7852,16 +7852,16 @@
         <v>52</v>
       </c>
       <c r="E110">
+        <v>5</v>
+      </c>
+      <c r="F110">
         <v>11</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>2</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>11</v>
-      </c>
-      <c r="H110">
-        <v>5</v>
       </c>
       <c r="I110" t="s">
         <v>57</v>
@@ -7887,16 +7887,16 @@
         <v>52</v>
       </c>
       <c r="E111">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F111">
         <v>4</v>
       </c>
       <c r="G111">
+        <v>4</v>
+      </c>
+      <c r="H111">
         <v>5</v>
-      </c>
-      <c r="H111">
-        <v>7</v>
       </c>
       <c r="I111" t="s">
         <v>57</v>
@@ -7922,16 +7922,16 @@
         <v>52</v>
       </c>
       <c r="E112">
+        <v>9</v>
+      </c>
+      <c r="F112">
         <v>6</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>4</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>8</v>
-      </c>
-      <c r="H112">
-        <v>9</v>
       </c>
       <c r="I112" t="s">
         <v>58</v>
@@ -7957,16 +7957,16 @@
         <v>52</v>
       </c>
       <c r="E113">
+        <v>4</v>
+      </c>
+      <c r="F113">
         <v>7</v>
-      </c>
-      <c r="F113">
-        <v>9</v>
       </c>
       <c r="G113">
         <v>9</v>
       </c>
       <c r="H113">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I113" t="s">
         <v>57</v>
@@ -7992,16 +7992,16 @@
         <v>52</v>
       </c>
       <c r="E114">
+        <v>4</v>
+      </c>
+      <c r="F114">
         <v>8</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>4</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>11</v>
-      </c>
-      <c r="H114">
-        <v>4</v>
       </c>
       <c r="I114" t="s">
         <v>57</v>
@@ -8027,13 +8027,13 @@
         <v>52</v>
       </c>
       <c r="E115">
+        <v>11</v>
+      </c>
+      <c r="F115">
         <v>9</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>0</v>
-      </c>
-      <c r="G115">
-        <v>11</v>
       </c>
       <c r="H115">
         <v>11</v>
@@ -8062,7 +8062,7 @@
         <v>52</v>
       </c>
       <c r="E116">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F116">
         <v>8</v>
@@ -8071,7 +8071,7 @@
         <v>8</v>
       </c>
       <c r="H116">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I116" t="s">
         <v>57</v>
@@ -8097,16 +8097,16 @@
         <v>52</v>
       </c>
       <c r="E117">
+        <v>9</v>
+      </c>
+      <c r="F117">
         <v>6</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>11</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>5</v>
-      </c>
-      <c r="H117">
-        <v>9</v>
       </c>
       <c r="I117" t="s">
         <v>57</v>
@@ -8135,13 +8135,13 @@
         <v>11</v>
       </c>
       <c r="F118">
+        <v>11</v>
+      </c>
+      <c r="G118">
         <v>6</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>7</v>
-      </c>
-      <c r="H118">
-        <v>11</v>
       </c>
       <c r="I118" t="s">
         <v>57</v>
@@ -8167,16 +8167,16 @@
         <v>52</v>
       </c>
       <c r="E119">
+        <v>9</v>
+      </c>
+      <c r="F119">
         <v>10</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>8</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>11</v>
-      </c>
-      <c r="H119">
-        <v>9</v>
       </c>
       <c r="I119" t="s">
         <v>57</v>
@@ -8202,16 +8202,16 @@
         <v>52</v>
       </c>
       <c r="E120">
+        <v>7</v>
+      </c>
+      <c r="F120">
         <v>11</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>7</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>11</v>
-      </c>
-      <c r="H120">
-        <v>7</v>
       </c>
       <c r="I120" t="s">
         <v>57</v>
@@ -8237,16 +8237,16 @@
         <v>52</v>
       </c>
       <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121">
         <v>8</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>5</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>11</v>
-      </c>
-      <c r="H121">
-        <v>4</v>
       </c>
       <c r="I121" t="s">
         <v>57</v>
@@ -8272,16 +8272,16 @@
         <v>52</v>
       </c>
       <c r="E122">
+        <v>9</v>
+      </c>
+      <c r="F122">
         <v>8</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>4</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>11</v>
-      </c>
-      <c r="H122">
-        <v>9</v>
       </c>
       <c r="I122" t="s">
         <v>57</v>
@@ -8310,10 +8310,10 @@
         <v>7</v>
       </c>
       <c r="F123">
+        <v>7</v>
+      </c>
+      <c r="G123">
         <v>0</v>
-      </c>
-      <c r="G123">
-        <v>7</v>
       </c>
       <c r="H123">
         <v>7</v>
@@ -8342,13 +8342,13 @@
         <v>51</v>
       </c>
       <c r="E124">
+        <v>4</v>
+      </c>
+      <c r="F124">
         <v>11</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>6</v>
-      </c>
-      <c r="G124">
-        <v>4</v>
       </c>
       <c r="H124">
         <v>4</v>
@@ -8377,16 +8377,16 @@
         <v>52</v>
       </c>
       <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125">
         <v>9</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>8</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>7</v>
-      </c>
-      <c r="H125">
-        <v>5</v>
       </c>
       <c r="I125" t="s">
         <v>57</v>
@@ -8412,7 +8412,7 @@
         <v>52</v>
       </c>
       <c r="E126">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F126">
         <v>9</v>
@@ -8421,7 +8421,7 @@
         <v>9</v>
       </c>
       <c r="H126">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I126" t="s">
         <v>58</v>
@@ -8447,16 +8447,16 @@
         <v>52</v>
       </c>
       <c r="E127">
+        <v>6</v>
+      </c>
+      <c r="F127">
         <v>8</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>2</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>8</v>
-      </c>
-      <c r="H127">
-        <v>6</v>
       </c>
       <c r="I127" t="s">
         <v>57</v>
@@ -8482,16 +8482,16 @@
         <v>52</v>
       </c>
       <c r="E128">
+        <v>9</v>
+      </c>
+      <c r="F128">
         <v>6</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>7</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>6</v>
-      </c>
-      <c r="H128">
-        <v>9</v>
       </c>
       <c r="I128" t="s">
         <v>57</v>
@@ -8517,16 +8517,16 @@
         <v>52</v>
       </c>
       <c r="E129">
+        <v>8</v>
+      </c>
+      <c r="F129">
         <v>5</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>3</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>6</v>
-      </c>
-      <c r="H129">
-        <v>8</v>
       </c>
       <c r="I129" t="s">
         <v>57</v>
@@ -8555,13 +8555,13 @@
         <v>9</v>
       </c>
       <c r="F130">
+        <v>9</v>
+      </c>
+      <c r="G130">
         <v>1</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>5</v>
-      </c>
-      <c r="H130">
-        <v>9</v>
       </c>
       <c r="I130" t="s">
         <v>57</v>
@@ -8590,10 +8590,10 @@
         <v>7</v>
       </c>
       <c r="F131">
+        <v>7</v>
+      </c>
+      <c r="G131">
         <v>9</v>
-      </c>
-      <c r="G131">
-        <v>7</v>
       </c>
       <c r="H131">
         <v>7</v>
@@ -8622,16 +8622,16 @@
         <v>52</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
         <v>11</v>
-      </c>
-      <c r="H132">
-        <v>9</v>
       </c>
       <c r="I132" t="s">
         <v>57</v>
@@ -8657,16 +8657,16 @@
         <v>52</v>
       </c>
       <c r="E133">
+        <v>5</v>
+      </c>
+      <c r="F133">
         <v>3</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>1</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>9</v>
-      </c>
-      <c r="H133">
-        <v>5</v>
       </c>
       <c r="I133" t="s">
         <v>57</v>
@@ -8692,16 +8692,16 @@
         <v>52</v>
       </c>
       <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134">
         <v>10</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>4</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>5</v>
-      </c>
-      <c r="H134">
-        <v>4</v>
       </c>
       <c r="I134" t="s">
         <v>57</v>
@@ -8727,16 +8727,16 @@
         <v>52</v>
       </c>
       <c r="E135">
+        <v>5</v>
+      </c>
+      <c r="F135">
         <v>1</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>11</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>6</v>
-      </c>
-      <c r="H135">
-        <v>5</v>
       </c>
       <c r="I135" t="s">
         <v>57</v>
@@ -8762,16 +8762,16 @@
         <v>52</v>
       </c>
       <c r="E136">
+        <v>8</v>
+      </c>
+      <c r="F136">
         <v>10</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>5</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>11</v>
-      </c>
-      <c r="H136">
-        <v>8</v>
       </c>
       <c r="I136" t="s">
         <v>57</v>
@@ -8797,16 +8797,16 @@
         <v>52</v>
       </c>
       <c r="E137">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F137">
         <v>7</v>
       </c>
       <c r="G137">
+        <v>7</v>
+      </c>
+      <c r="H137">
         <v>5</v>
-      </c>
-      <c r="H137">
-        <v>9</v>
       </c>
       <c r="I137" t="s">
         <v>57</v>
@@ -8832,13 +8832,13 @@
         <v>52</v>
       </c>
       <c r="E138">
+        <v>6</v>
+      </c>
+      <c r="F138">
         <v>5</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>9</v>
-      </c>
-      <c r="G138">
-        <v>6</v>
       </c>
       <c r="H138">
         <v>6</v>
@@ -8867,16 +8867,16 @@
         <v>52</v>
       </c>
       <c r="E139">
+        <v>11</v>
+      </c>
+      <c r="F139">
         <v>2</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>0</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>8</v>
-      </c>
-      <c r="H139">
-        <v>11</v>
       </c>
       <c r="I139" t="s">
         <v>57</v>
@@ -8902,16 +8902,16 @@
         <v>52</v>
       </c>
       <c r="E140">
+        <v>8</v>
+      </c>
+      <c r="F140">
         <v>4</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>11</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>9</v>
-      </c>
-      <c r="H140">
-        <v>8</v>
       </c>
       <c r="I140" t="s">
         <v>57</v>
@@ -8937,16 +8937,16 @@
         <v>52</v>
       </c>
       <c r="E141">
+        <v>4</v>
+      </c>
+      <c r="F141">
         <v>6</v>
-      </c>
-      <c r="F141">
-        <v>10</v>
       </c>
       <c r="G141">
         <v>10</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I141" t="s">
         <v>57</v>
@@ -8972,16 +8972,16 @@
         <v>52</v>
       </c>
       <c r="E142">
+        <v>7</v>
+      </c>
+      <c r="F142">
         <v>8</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>3</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>8</v>
-      </c>
-      <c r="H142">
-        <v>7</v>
       </c>
       <c r="I142" t="s">
         <v>57</v>
@@ -9007,16 +9007,16 @@
         <v>52</v>
       </c>
       <c r="E143">
+        <v>9</v>
+      </c>
+      <c r="F143">
         <v>0</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>8</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>11</v>
-      </c>
-      <c r="H143">
-        <v>9</v>
       </c>
       <c r="I143" t="s">
         <v>57</v>
@@ -9045,13 +9045,13 @@
         <v>9</v>
       </c>
       <c r="F144">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G144">
         <v>5</v>
       </c>
       <c r="H144">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I144" t="s">
         <v>57</v>
@@ -9077,16 +9077,16 @@
         <v>52</v>
       </c>
       <c r="E145">
+        <v>10</v>
+      </c>
+      <c r="F145">
         <v>7</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>8</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>5</v>
-      </c>
-      <c r="H145">
-        <v>10</v>
       </c>
       <c r="I145" t="s">
         <v>57</v>
@@ -9112,16 +9112,16 @@
         <v>52</v>
       </c>
       <c r="E146">
+        <v>6</v>
+      </c>
+      <c r="F146">
         <v>3</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>5</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>11</v>
-      </c>
-      <c r="H146">
-        <v>6</v>
       </c>
       <c r="I146" t="s">
         <v>58</v>
@@ -9147,16 +9147,16 @@
         <v>52</v>
       </c>
       <c r="E147">
+        <v>8</v>
+      </c>
+      <c r="F147">
         <v>6</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>0</v>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>7</v>
-      </c>
-      <c r="H147">
-        <v>8</v>
       </c>
       <c r="I147" t="s">
         <v>58</v>
@@ -9182,16 +9182,16 @@
         <v>52</v>
       </c>
       <c r="E148">
+        <v>5</v>
+      </c>
+      <c r="F148">
         <v>0</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>2</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>11</v>
-      </c>
-      <c r="H148">
-        <v>5</v>
       </c>
       <c r="I148" t="s">
         <v>57</v>
@@ -9220,13 +9220,13 @@
         <v>4</v>
       </c>
       <c r="F149">
+        <v>4</v>
+      </c>
+      <c r="G149">
         <v>8</v>
       </c>
-      <c r="G149">
+      <c r="H149">
         <v>13</v>
-      </c>
-      <c r="H149">
-        <v>4</v>
       </c>
       <c r="I149" t="s">
         <v>57</v>
@@ -9252,16 +9252,16 @@
         <v>51</v>
       </c>
       <c r="E150">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F150">
         <v>8</v>
       </c>
       <c r="G150">
+        <v>8</v>
+      </c>
+      <c r="H150">
         <v>7</v>
-      </c>
-      <c r="H150">
-        <v>9</v>
       </c>
       <c r="I150" t="s">
         <v>57</v>
@@ -9287,16 +9287,16 @@
         <v>51</v>
       </c>
       <c r="E151">
+        <v>5</v>
+      </c>
+      <c r="F151">
         <v>2</v>
-      </c>
-      <c r="F151">
-        <v>6</v>
       </c>
       <c r="G151">
         <v>6</v>
       </c>
       <c r="H151">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I151" t="s">
         <v>57</v>
@@ -9322,16 +9322,16 @@
         <v>51</v>
       </c>
       <c r="E152">
+        <v>4</v>
+      </c>
+      <c r="F152">
         <v>6</v>
-      </c>
-      <c r="F152">
-        <v>10</v>
       </c>
       <c r="G152">
         <v>10</v>
       </c>
       <c r="H152">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I152" t="s">
         <v>58</v>
@@ -9357,13 +9357,13 @@
         <v>51</v>
       </c>
       <c r="E153">
+        <v>3</v>
+      </c>
+      <c r="F153">
         <v>8</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>6</v>
-      </c>
-      <c r="G153">
-        <v>3</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -9392,16 +9392,16 @@
         <v>51</v>
       </c>
       <c r="E154">
+        <v>9</v>
+      </c>
+      <c r="F154">
         <v>1</v>
       </c>
-      <c r="F154">
+      <c r="G154">
         <v>2</v>
       </c>
-      <c r="G154">
+      <c r="H154">
         <v>7</v>
-      </c>
-      <c r="H154">
-        <v>9</v>
       </c>
       <c r="I154" t="s">
         <v>57</v>
@@ -9427,16 +9427,16 @@
         <v>51</v>
       </c>
       <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155">
         <v>7</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <v>2</v>
       </c>
-      <c r="G155">
+      <c r="H155">
         <v>10</v>
-      </c>
-      <c r="H155">
-        <v>2</v>
       </c>
       <c r="I155" t="s">
         <v>57</v>
@@ -9462,16 +9462,16 @@
         <v>51</v>
       </c>
       <c r="E156">
+        <v>11</v>
+      </c>
+      <c r="F156">
         <v>0</v>
-      </c>
-      <c r="F156">
-        <v>9</v>
       </c>
       <c r="G156">
         <v>9</v>
       </c>
       <c r="H156">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I156" t="s">
         <v>57</v>
@@ -9497,16 +9497,16 @@
         <v>51</v>
       </c>
       <c r="E157">
+        <v>5</v>
+      </c>
+      <c r="F157">
         <v>2</v>
       </c>
-      <c r="F157">
+      <c r="G157">
         <v>7</v>
       </c>
-      <c r="G157">
+      <c r="H157">
         <v>10</v>
-      </c>
-      <c r="H157">
-        <v>5</v>
       </c>
       <c r="I157" t="s">
         <v>57</v>
@@ -9535,13 +9535,13 @@
         <v>8</v>
       </c>
       <c r="F158">
+        <v>8</v>
+      </c>
+      <c r="G158">
         <v>7</v>
       </c>
-      <c r="G158">
+      <c r="H158">
         <v>10</v>
-      </c>
-      <c r="H158">
-        <v>8</v>
       </c>
       <c r="I158" t="s">
         <v>57</v>
@@ -9567,16 +9567,16 @@
         <v>51</v>
       </c>
       <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159">
         <v>9</v>
       </c>
-      <c r="F159">
+      <c r="G159">
         <v>6</v>
       </c>
-      <c r="G159">
+      <c r="H159">
         <v>7</v>
-      </c>
-      <c r="H159">
-        <v>2</v>
       </c>
       <c r="I159" t="s">
         <v>57</v>
@@ -9602,16 +9602,16 @@
         <v>51</v>
       </c>
       <c r="E160">
+        <v>4</v>
+      </c>
+      <c r="F160">
         <v>5</v>
       </c>
-      <c r="F160">
+      <c r="G160">
         <v>4</v>
       </c>
-      <c r="G160">
+      <c r="H160">
         <v>8</v>
-      </c>
-      <c r="H160">
-        <v>4</v>
       </c>
       <c r="I160" t="s">
         <v>57</v>
@@ -9637,16 +9637,16 @@
         <v>51</v>
       </c>
       <c r="E161">
+        <v>3</v>
+      </c>
+      <c r="F161">
         <v>0</v>
       </c>
-      <c r="F161">
+      <c r="G161">
         <v>11</v>
       </c>
-      <c r="G161">
+      <c r="H161">
         <v>12</v>
-      </c>
-      <c r="H161">
-        <v>3</v>
       </c>
       <c r="I161" t="s">
         <v>57</v>
@@ -9672,16 +9672,16 @@
         <v>51</v>
       </c>
       <c r="E162">
+        <v>13</v>
+      </c>
+      <c r="F162">
         <v>10</v>
       </c>
-      <c r="F162">
+      <c r="G162">
         <v>2</v>
       </c>
-      <c r="G162">
+      <c r="H162">
         <v>6</v>
-      </c>
-      <c r="H162">
-        <v>13</v>
       </c>
       <c r="I162" t="s">
         <v>57</v>
@@ -9707,16 +9707,16 @@
         <v>51</v>
       </c>
       <c r="E163">
+        <v>9</v>
+      </c>
+      <c r="F163">
         <v>7</v>
       </c>
-      <c r="F163">
+      <c r="G163">
         <v>11</v>
       </c>
-      <c r="G163">
+      <c r="H163">
         <v>8</v>
-      </c>
-      <c r="H163">
-        <v>9</v>
       </c>
       <c r="I163" t="s">
         <v>57</v>
@@ -9742,16 +9742,16 @@
         <v>51</v>
       </c>
       <c r="E164">
+        <v>11</v>
+      </c>
+      <c r="F164">
         <v>1</v>
       </c>
-      <c r="F164">
+      <c r="G164">
         <v>9</v>
       </c>
-      <c r="G164">
+      <c r="H164">
         <v>8</v>
-      </c>
-      <c r="H164">
-        <v>11</v>
       </c>
       <c r="I164" t="s">
         <v>57</v>
@@ -9777,13 +9777,13 @@
         <v>51</v>
       </c>
       <c r="E165">
+        <v>12</v>
+      </c>
+      <c r="F165">
         <v>2</v>
       </c>
-      <c r="F165">
+      <c r="G165">
         <v>1</v>
-      </c>
-      <c r="G165">
-        <v>12</v>
       </c>
       <c r="H165">
         <v>12</v>
@@ -9812,16 +9812,16 @@
         <v>51</v>
       </c>
       <c r="E166">
+        <v>7</v>
+      </c>
+      <c r="F166">
         <v>1</v>
       </c>
-      <c r="F166">
+      <c r="G166">
         <v>3</v>
       </c>
-      <c r="G166">
+      <c r="H166">
         <v>8</v>
-      </c>
-      <c r="H166">
-        <v>7</v>
       </c>
       <c r="I166" t="s">
         <v>57</v>
@@ -9847,16 +9847,16 @@
         <v>51</v>
       </c>
       <c r="E167">
+        <v>11</v>
+      </c>
+      <c r="F167">
         <v>0</v>
       </c>
-      <c r="F167">
+      <c r="G167">
         <v>7</v>
       </c>
-      <c r="G167">
+      <c r="H167">
         <v>4</v>
-      </c>
-      <c r="H167">
-        <v>11</v>
       </c>
       <c r="I167" t="s">
         <v>58</v>
@@ -9882,16 +9882,16 @@
         <v>51</v>
       </c>
       <c r="E168">
+        <v>12</v>
+      </c>
+      <c r="F168">
         <v>4</v>
       </c>
-      <c r="F168">
+      <c r="G168">
         <v>10</v>
       </c>
-      <c r="G168">
+      <c r="H168">
         <v>13</v>
-      </c>
-      <c r="H168">
-        <v>12</v>
       </c>
       <c r="I168" t="s">
         <v>57</v>
@@ -9917,13 +9917,13 @@
         <v>51</v>
       </c>
       <c r="E169">
+        <v>5</v>
+      </c>
+      <c r="F169">
         <v>4</v>
       </c>
-      <c r="F169">
+      <c r="G169">
         <v>0</v>
-      </c>
-      <c r="G169">
-        <v>5</v>
       </c>
       <c r="H169">
         <v>5</v>
@@ -9952,16 +9952,16 @@
         <v>51</v>
       </c>
       <c r="E170">
+        <v>6</v>
+      </c>
+      <c r="F170">
         <v>5</v>
-      </c>
-      <c r="F170">
-        <v>11</v>
       </c>
       <c r="G170">
         <v>11</v>
       </c>
       <c r="H170">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I170" t="s">
         <v>57</v>
@@ -9987,16 +9987,16 @@
         <v>51</v>
       </c>
       <c r="E171">
+        <v>9</v>
+      </c>
+      <c r="F171">
         <v>6</v>
       </c>
-      <c r="F171">
+      <c r="G171">
         <v>11</v>
       </c>
-      <c r="G171">
+      <c r="H171">
         <v>6</v>
-      </c>
-      <c r="H171">
-        <v>9</v>
       </c>
       <c r="I171" t="s">
         <v>58</v>
@@ -10022,13 +10022,13 @@
         <v>51</v>
       </c>
       <c r="E172">
+        <v>9</v>
+      </c>
+      <c r="F172">
         <v>1</v>
       </c>
-      <c r="F172">
+      <c r="G172">
         <v>3</v>
-      </c>
-      <c r="G172">
-        <v>9</v>
       </c>
       <c r="H172">
         <v>9</v>
@@ -10060,10 +10060,10 @@
         <v>10</v>
       </c>
       <c r="F173">
+        <v>10</v>
+      </c>
+      <c r="G173">
         <v>2</v>
-      </c>
-      <c r="G173">
-        <v>10</v>
       </c>
       <c r="H173">
         <v>10</v>
@@ -10092,16 +10092,16 @@
         <v>51</v>
       </c>
       <c r="E174">
+        <v>11</v>
+      </c>
+      <c r="F174">
         <v>8</v>
       </c>
-      <c r="F174">
+      <c r="G174">
         <v>2</v>
       </c>
-      <c r="G174">
+      <c r="H174">
         <v>7</v>
-      </c>
-      <c r="H174">
-        <v>11</v>
       </c>
       <c r="I174" t="s">
         <v>57</v>
@@ -10127,16 +10127,16 @@
         <v>51</v>
       </c>
       <c r="E175">
+        <v>3</v>
+      </c>
+      <c r="F175">
         <v>9</v>
-      </c>
-      <c r="F175">
-        <v>6</v>
       </c>
       <c r="G175">
         <v>6</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I175" t="s">
         <v>58</v>
@@ -10162,16 +10162,16 @@
         <v>51</v>
       </c>
       <c r="E176">
+        <v>8</v>
+      </c>
+      <c r="F176">
         <v>2</v>
       </c>
-      <c r="F176">
+      <c r="G176">
         <v>5</v>
       </c>
-      <c r="G176">
+      <c r="H176">
         <v>11</v>
-      </c>
-      <c r="H176">
-        <v>8</v>
       </c>
       <c r="I176" t="s">
         <v>57</v>
@@ -10197,16 +10197,16 @@
         <v>51</v>
       </c>
       <c r="E177">
+        <v>9</v>
+      </c>
+      <c r="F177">
         <v>3</v>
       </c>
-      <c r="F177">
+      <c r="G177">
         <v>1</v>
       </c>
-      <c r="G177">
+      <c r="H177">
         <v>12</v>
-      </c>
-      <c r="H177">
-        <v>9</v>
       </c>
       <c r="I177" t="s">
         <v>57</v>
@@ -10232,16 +10232,16 @@
         <v>51</v>
       </c>
       <c r="E178">
+        <v>4</v>
+      </c>
+      <c r="F178">
         <v>1</v>
       </c>
-      <c r="F178">
+      <c r="G178">
         <v>3</v>
       </c>
-      <c r="G178">
+      <c r="H178">
         <v>13</v>
-      </c>
-      <c r="H178">
-        <v>4</v>
       </c>
       <c r="I178" t="s">
         <v>57</v>
@@ -10267,16 +10267,16 @@
         <v>51</v>
       </c>
       <c r="E179">
+        <v>7</v>
+      </c>
+      <c r="F179">
         <v>6</v>
       </c>
-      <c r="F179">
+      <c r="G179">
         <v>0</v>
       </c>
-      <c r="G179">
+      <c r="H179">
         <v>3</v>
-      </c>
-      <c r="H179">
-        <v>7</v>
       </c>
       <c r="I179" t="s">
         <v>57</v>
@@ -10302,16 +10302,16 @@
         <v>51</v>
       </c>
       <c r="E180">
+        <v>10</v>
+      </c>
+      <c r="F180">
         <v>0</v>
       </c>
-      <c r="F180">
+      <c r="G180">
         <v>1</v>
       </c>
-      <c r="G180">
+      <c r="H180">
         <v>2</v>
-      </c>
-      <c r="H180">
-        <v>10</v>
       </c>
       <c r="I180" t="s">
         <v>57</v>
@@ -10340,13 +10340,13 @@
         <v>7</v>
       </c>
       <c r="F181">
+        <v>7</v>
+      </c>
+      <c r="G181">
         <v>4</v>
       </c>
-      <c r="G181">
+      <c r="H181">
         <v>6</v>
-      </c>
-      <c r="H181">
-        <v>7</v>
       </c>
       <c r="I181" t="s">
         <v>57</v>
@@ -10372,16 +10372,16 @@
         <v>51</v>
       </c>
       <c r="E182">
+        <v>9</v>
+      </c>
+      <c r="F182">
         <v>3</v>
       </c>
-      <c r="F182">
+      <c r="G182">
         <v>1</v>
       </c>
-      <c r="G182">
+      <c r="H182">
         <v>8</v>
-      </c>
-      <c r="H182">
-        <v>9</v>
       </c>
       <c r="I182" t="s">
         <v>57</v>
@@ -10407,16 +10407,16 @@
         <v>51</v>
       </c>
       <c r="E183">
+        <v>3</v>
+      </c>
+      <c r="F183">
         <v>0</v>
-      </c>
-      <c r="F183">
-        <v>7</v>
       </c>
       <c r="G183">
         <v>7</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I183" t="s">
         <v>58</v>
@@ -10442,16 +10442,16 @@
         <v>51</v>
       </c>
       <c r="E184">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F184">
         <v>8</v>
       </c>
       <c r="G184">
+        <v>8</v>
+      </c>
+      <c r="H184">
         <v>12</v>
-      </c>
-      <c r="H184">
-        <v>3</v>
       </c>
       <c r="I184" t="s">
         <v>57</v>
@@ -10477,16 +10477,16 @@
         <v>51</v>
       </c>
       <c r="E185">
+        <v>11</v>
+      </c>
+      <c r="F185">
         <v>7</v>
       </c>
-      <c r="F185">
+      <c r="G185">
         <v>6</v>
       </c>
-      <c r="G185">
+      <c r="H185">
         <v>7</v>
-      </c>
-      <c r="H185">
-        <v>11</v>
       </c>
       <c r="I185" t="s">
         <v>57</v>
@@ -10515,13 +10515,13 @@
         <v>3</v>
       </c>
       <c r="F186">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G186">
         <v>9</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I186" t="s">
         <v>57</v>
@@ -10547,13 +10547,13 @@
         <v>51</v>
       </c>
       <c r="E187">
+        <v>13</v>
+      </c>
+      <c r="F187">
         <v>0</v>
       </c>
-      <c r="F187">
+      <c r="G187">
         <v>1</v>
-      </c>
-      <c r="G187">
-        <v>13</v>
       </c>
       <c r="H187">
         <v>13</v>
@@ -10582,16 +10582,16 @@
         <v>51</v>
       </c>
       <c r="E188">
+        <v>11</v>
+      </c>
+      <c r="F188">
         <v>2</v>
       </c>
-      <c r="F188">
+      <c r="G188">
         <v>3</v>
       </c>
-      <c r="G188">
+      <c r="H188">
         <v>6</v>
-      </c>
-      <c r="H188">
-        <v>11</v>
       </c>
       <c r="I188" t="s">
         <v>57</v>
@@ -10620,13 +10620,13 @@
         <v>9</v>
       </c>
       <c r="F189">
+        <v>9</v>
+      </c>
+      <c r="G189">
         <v>10</v>
       </c>
-      <c r="G189">
+      <c r="H189">
         <v>4</v>
-      </c>
-      <c r="H189">
-        <v>9</v>
       </c>
       <c r="I189" t="s">
         <v>57</v>
@@ -10652,16 +10652,16 @@
         <v>51</v>
       </c>
       <c r="E190">
+        <v>12</v>
+      </c>
+      <c r="F190">
         <v>7</v>
       </c>
-      <c r="F190">
+      <c r="G190">
         <v>6</v>
       </c>
-      <c r="G190">
+      <c r="H190">
         <v>8</v>
-      </c>
-      <c r="H190">
-        <v>12</v>
       </c>
       <c r="I190" t="s">
         <v>57</v>
@@ -10687,16 +10687,16 @@
         <v>51</v>
       </c>
       <c r="E191">
+        <v>9</v>
+      </c>
+      <c r="F191">
         <v>5</v>
       </c>
-      <c r="F191">
+      <c r="G191">
         <v>3</v>
       </c>
-      <c r="G191">
+      <c r="H191">
         <v>10</v>
-      </c>
-      <c r="H191">
-        <v>9</v>
       </c>
       <c r="I191" t="s">
         <v>57</v>
@@ -10722,16 +10722,16 @@
         <v>51</v>
       </c>
       <c r="E192">
+        <v>4</v>
+      </c>
+      <c r="F192">
         <v>2</v>
       </c>
-      <c r="F192">
+      <c r="G192">
         <v>8</v>
       </c>
-      <c r="G192">
+      <c r="H192">
         <v>5</v>
-      </c>
-      <c r="H192">
-        <v>4</v>
       </c>
       <c r="I192" t="s">
         <v>58</v>
@@ -10757,16 +10757,16 @@
         <v>51</v>
       </c>
       <c r="E193">
+        <v>6</v>
+      </c>
+      <c r="F193">
         <v>1</v>
       </c>
-      <c r="F193">
+      <c r="G193">
         <v>8</v>
       </c>
-      <c r="G193">
+      <c r="H193">
         <v>9</v>
-      </c>
-      <c r="H193">
-        <v>6</v>
       </c>
       <c r="I193" t="s">
         <v>57</v>
@@ -10792,16 +10792,16 @@
         <v>51</v>
       </c>
       <c r="E194">
+        <v>6</v>
+      </c>
+      <c r="F194">
         <v>11</v>
       </c>
-      <c r="F194">
+      <c r="G194">
         <v>1</v>
       </c>
-      <c r="G194">
+      <c r="H194">
         <v>13</v>
-      </c>
-      <c r="H194">
-        <v>6</v>
       </c>
       <c r="I194" t="s">
         <v>57</v>
@@ -10827,16 +10827,16 @@
         <v>51</v>
       </c>
       <c r="E195">
+        <v>8</v>
+      </c>
+      <c r="F195">
         <v>4</v>
       </c>
-      <c r="F195">
+      <c r="G195">
         <v>0</v>
       </c>
-      <c r="G195">
+      <c r="H195">
         <v>5</v>
-      </c>
-      <c r="H195">
-        <v>8</v>
       </c>
       <c r="I195" t="s">
         <v>57</v>
@@ -10862,16 +10862,16 @@
         <v>51</v>
       </c>
       <c r="E196">
+        <v>12</v>
+      </c>
+      <c r="F196">
         <v>3</v>
-      </c>
-      <c r="F196">
-        <v>9</v>
       </c>
       <c r="G196">
         <v>9</v>
       </c>
       <c r="H196">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I196" t="s">
         <v>58</v>
@@ -10897,16 +10897,16 @@
         <v>51</v>
       </c>
       <c r="E197">
+        <v>8</v>
+      </c>
+      <c r="F197">
         <v>7</v>
       </c>
-      <c r="F197">
+      <c r="G197">
         <v>1</v>
       </c>
-      <c r="G197">
+      <c r="H197">
         <v>5</v>
-      </c>
-      <c r="H197">
-        <v>8</v>
       </c>
       <c r="I197" t="s">
         <v>58</v>
@@ -10935,13 +10935,13 @@
         <v>5</v>
       </c>
       <c r="F198">
+        <v>5</v>
+      </c>
+      <c r="G198">
         <v>7</v>
       </c>
-      <c r="G198">
+      <c r="H198">
         <v>8</v>
-      </c>
-      <c r="H198">
-        <v>5</v>
       </c>
       <c r="I198" t="s">
         <v>58</v>
@@ -10967,16 +10967,16 @@
         <v>51</v>
       </c>
       <c r="E199">
+        <v>5</v>
+      </c>
+      <c r="F199">
         <v>3</v>
       </c>
-      <c r="F199">
+      <c r="G199">
         <v>10</v>
       </c>
-      <c r="G199">
+      <c r="H199">
         <v>7</v>
-      </c>
-      <c r="H199">
-        <v>5</v>
       </c>
       <c r="I199" t="s">
         <v>57</v>
@@ -11002,16 +11002,16 @@
         <v>51</v>
       </c>
       <c r="E200">
+        <v>7</v>
+      </c>
+      <c r="F200">
         <v>6</v>
       </c>
-      <c r="F200">
+      <c r="G200">
         <v>11</v>
       </c>
-      <c r="G200">
+      <c r="H200">
         <v>13</v>
-      </c>
-      <c r="H200">
-        <v>7</v>
       </c>
       <c r="I200" t="s">
         <v>57</v>
@@ -11037,16 +11037,16 @@
         <v>51</v>
       </c>
       <c r="E201">
+        <v>12</v>
+      </c>
+      <c r="F201">
         <v>9</v>
       </c>
-      <c r="F201">
+      <c r="G201">
         <v>4</v>
       </c>
-      <c r="G201">
+      <c r="H201">
         <v>7</v>
-      </c>
-      <c r="H201">
-        <v>12</v>
       </c>
       <c r="I201" t="s">
         <v>57</v>
@@ -11072,16 +11072,16 @@
         <v>51</v>
       </c>
       <c r="E202">
+        <v>3</v>
+      </c>
+      <c r="F202">
         <v>7</v>
       </c>
-      <c r="F202">
+      <c r="G202">
         <v>5</v>
       </c>
-      <c r="G202">
+      <c r="H202">
         <v>8</v>
-      </c>
-      <c r="H202">
-        <v>3</v>
       </c>
       <c r="I202" t="s">
         <v>57</v>
@@ -11107,16 +11107,16 @@
         <v>51</v>
       </c>
       <c r="E203">
+        <v>5</v>
+      </c>
+      <c r="F203">
         <v>6</v>
       </c>
-      <c r="F203">
+      <c r="G203">
         <v>3</v>
       </c>
-      <c r="G203">
+      <c r="H203">
         <v>9</v>
-      </c>
-      <c r="H203">
-        <v>5</v>
       </c>
       <c r="I203" t="s">
         <v>57</v>
@@ -11142,16 +11142,16 @@
         <v>51</v>
       </c>
       <c r="E204">
+        <v>11</v>
+      </c>
+      <c r="F204">
         <v>9</v>
       </c>
-      <c r="F204">
+      <c r="G204">
         <v>11</v>
       </c>
-      <c r="G204">
+      <c r="H204">
         <v>13</v>
-      </c>
-      <c r="H204">
-        <v>11</v>
       </c>
       <c r="I204" t="s">
         <v>57</v>
@@ -11177,16 +11177,16 @@
         <v>51</v>
       </c>
       <c r="E205">
+        <v>6</v>
+      </c>
+      <c r="F205">
         <v>4</v>
       </c>
-      <c r="F205">
+      <c r="G205">
         <v>3</v>
       </c>
-      <c r="G205">
+      <c r="H205">
         <v>10</v>
-      </c>
-      <c r="H205">
-        <v>6</v>
       </c>
       <c r="I205" t="s">
         <v>57</v>
@@ -11212,16 +11212,16 @@
         <v>51</v>
       </c>
       <c r="E206">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F206">
         <v>9</v>
       </c>
       <c r="G206">
+        <v>9</v>
+      </c>
+      <c r="H206">
         <v>10</v>
-      </c>
-      <c r="H206">
-        <v>6</v>
       </c>
       <c r="I206" t="s">
         <v>57</v>
@@ -11247,16 +11247,16 @@
         <v>51</v>
       </c>
       <c r="E207">
+        <v>6</v>
+      </c>
+      <c r="F207">
         <v>5</v>
       </c>
-      <c r="F207">
+      <c r="G207">
         <v>2</v>
       </c>
-      <c r="G207">
+      <c r="H207">
         <v>9</v>
-      </c>
-      <c r="H207">
-        <v>6</v>
       </c>
       <c r="I207" t="s">
         <v>57</v>
@@ -11282,16 +11282,16 @@
         <v>51</v>
       </c>
       <c r="E208">
+        <v>10</v>
+      </c>
+      <c r="F208">
         <v>3</v>
       </c>
-      <c r="F208">
+      <c r="G208">
         <v>8</v>
       </c>
-      <c r="G208">
+      <c r="H208">
         <v>9</v>
-      </c>
-      <c r="H208">
-        <v>10</v>
       </c>
       <c r="I208" t="s">
         <v>57</v>
@@ -11317,16 +11317,16 @@
         <v>51</v>
       </c>
       <c r="E209">
+        <v>7</v>
+      </c>
+      <c r="F209">
         <v>5</v>
       </c>
-      <c r="F209">
+      <c r="G209">
         <v>9</v>
       </c>
-      <c r="G209">
+      <c r="H209">
         <v>3</v>
-      </c>
-      <c r="H209">
-        <v>7</v>
       </c>
       <c r="I209" t="s">
         <v>57</v>
@@ -11352,16 +11352,16 @@
         <v>51</v>
       </c>
       <c r="E210">
+        <v>12</v>
+      </c>
+      <c r="F210">
         <v>9</v>
       </c>
-      <c r="F210">
+      <c r="G210">
         <v>2</v>
       </c>
-      <c r="G210">
+      <c r="H210">
         <v>8</v>
-      </c>
-      <c r="H210">
-        <v>12</v>
       </c>
       <c r="I210" t="s">
         <v>57</v>
@@ -11387,16 +11387,16 @@
         <v>51</v>
       </c>
       <c r="E211">
+        <v>12</v>
+      </c>
+      <c r="F211">
         <v>0</v>
       </c>
-      <c r="F211">
+      <c r="G211">
         <v>4</v>
       </c>
-      <c r="G211">
+      <c r="H211">
         <v>11</v>
-      </c>
-      <c r="H211">
-        <v>12</v>
       </c>
       <c r="I211" t="s">
         <v>57</v>
@@ -11422,16 +11422,16 @@
         <v>51</v>
       </c>
       <c r="E212">
+        <v>6</v>
+      </c>
+      <c r="F212">
         <v>1</v>
       </c>
-      <c r="F212">
+      <c r="G212">
         <v>4</v>
       </c>
-      <c r="G212">
+      <c r="H212">
         <v>5</v>
-      </c>
-      <c r="H212">
-        <v>6</v>
       </c>
       <c r="I212" t="s">
         <v>57</v>
@@ -11457,16 +11457,16 @@
         <v>51</v>
       </c>
       <c r="E213">
+        <v>8</v>
+      </c>
+      <c r="F213">
         <v>2</v>
       </c>
-      <c r="F213">
+      <c r="G213">
         <v>6</v>
       </c>
-      <c r="G213">
+      <c r="H213">
         <v>10</v>
-      </c>
-      <c r="H213">
-        <v>8</v>
       </c>
       <c r="I213" t="s">
         <v>57</v>
@@ -11492,16 +11492,16 @@
         <v>51</v>
       </c>
       <c r="E214">
+        <v>6</v>
+      </c>
+      <c r="F214">
         <v>9</v>
       </c>
-      <c r="F214">
+      <c r="G214">
         <v>3</v>
       </c>
-      <c r="G214">
+      <c r="H214">
         <v>9</v>
-      </c>
-      <c r="H214">
-        <v>6</v>
       </c>
       <c r="I214" t="s">
         <v>57</v>
@@ -11527,16 +11527,16 @@
         <v>51</v>
       </c>
       <c r="E215">
+        <v>8</v>
+      </c>
+      <c r="F215">
         <v>6</v>
       </c>
-      <c r="F215">
+      <c r="G215">
         <v>8</v>
       </c>
-      <c r="G215">
+      <c r="H215">
         <v>12</v>
-      </c>
-      <c r="H215">
-        <v>8</v>
       </c>
       <c r="I215" t="s">
         <v>57</v>
@@ -11562,16 +11562,16 @@
         <v>51</v>
       </c>
       <c r="E216">
+        <v>6</v>
+      </c>
+      <c r="F216">
         <v>4</v>
       </c>
-      <c r="F216">
+      <c r="G216">
         <v>6</v>
       </c>
-      <c r="G216">
+      <c r="H216">
         <v>3</v>
-      </c>
-      <c r="H216">
-        <v>6</v>
       </c>
       <c r="I216" t="s">
         <v>57</v>
@@ -11597,16 +11597,16 @@
         <v>51</v>
       </c>
       <c r="E217">
+        <v>7</v>
+      </c>
+      <c r="F217">
         <v>10</v>
       </c>
-      <c r="F217">
+      <c r="G217">
         <v>1</v>
       </c>
-      <c r="G217">
+      <c r="H217">
         <v>5</v>
-      </c>
-      <c r="H217">
-        <v>7</v>
       </c>
       <c r="I217" t="s">
         <v>58</v>
@@ -11632,16 +11632,16 @@
         <v>51</v>
       </c>
       <c r="E218">
+        <v>9</v>
+      </c>
+      <c r="F218">
         <v>2</v>
       </c>
-      <c r="F218">
+      <c r="G218">
         <v>3</v>
       </c>
-      <c r="G218">
+      <c r="H218">
         <v>8</v>
-      </c>
-      <c r="H218">
-        <v>9</v>
       </c>
       <c r="I218" t="s">
         <v>57</v>
@@ -11667,16 +11667,16 @@
         <v>51</v>
       </c>
       <c r="E219">
+        <v>4</v>
+      </c>
+      <c r="F219">
         <v>7</v>
       </c>
-      <c r="F219">
+      <c r="G219">
         <v>11</v>
       </c>
-      <c r="G219">
+      <c r="H219">
         <v>2</v>
-      </c>
-      <c r="H219">
-        <v>4</v>
       </c>
       <c r="I219" t="s">
         <v>57</v>
@@ -11702,16 +11702,16 @@
         <v>51</v>
       </c>
       <c r="E220">
+        <v>6</v>
+      </c>
+      <c r="F220">
         <v>0</v>
       </c>
-      <c r="F220">
+      <c r="G220">
         <v>5</v>
       </c>
-      <c r="G220">
+      <c r="H220">
         <v>13</v>
-      </c>
-      <c r="H220">
-        <v>6</v>
       </c>
       <c r="I220" t="s">
         <v>57</v>
@@ -11737,16 +11737,16 @@
         <v>51</v>
       </c>
       <c r="E221">
+        <v>11</v>
+      </c>
+      <c r="F221">
         <v>0</v>
       </c>
-      <c r="F221">
+      <c r="G221">
         <v>10</v>
       </c>
-      <c r="G221">
+      <c r="H221">
         <v>8</v>
-      </c>
-      <c r="H221">
-        <v>11</v>
       </c>
       <c r="I221" t="s">
         <v>57</v>
@@ -11772,16 +11772,16 @@
         <v>51</v>
       </c>
       <c r="E222">
+        <v>10</v>
+      </c>
+      <c r="F222">
         <v>11</v>
       </c>
-      <c r="F222">
+      <c r="G222">
         <v>0</v>
       </c>
-      <c r="G222">
+      <c r="H222">
         <v>6</v>
-      </c>
-      <c r="H222">
-        <v>10</v>
       </c>
       <c r="I222" t="s">
         <v>57</v>
@@ -11807,16 +11807,16 @@
         <v>51</v>
       </c>
       <c r="E223">
+        <v>4</v>
+      </c>
+      <c r="F223">
         <v>9</v>
       </c>
-      <c r="F223">
+      <c r="G223">
         <v>6</v>
       </c>
-      <c r="G223">
+      <c r="H223">
         <v>7</v>
-      </c>
-      <c r="H223">
-        <v>4</v>
       </c>
       <c r="I223" t="s">
         <v>57</v>
@@ -11842,16 +11842,16 @@
         <v>51</v>
       </c>
       <c r="E224">
+        <v>4</v>
+      </c>
+      <c r="F224">
         <v>11</v>
       </c>
-      <c r="F224">
+      <c r="G224">
         <v>0</v>
       </c>
-      <c r="G224">
+      <c r="H224">
         <v>9</v>
-      </c>
-      <c r="H224">
-        <v>4</v>
       </c>
       <c r="I224" t="s">
         <v>57</v>
@@ -11877,16 +11877,16 @@
         <v>51</v>
       </c>
       <c r="E225">
+        <v>12</v>
+      </c>
+      <c r="F225">
         <v>1</v>
       </c>
-      <c r="F225">
+      <c r="G225">
         <v>2</v>
       </c>
-      <c r="G225">
+      <c r="H225">
         <v>7</v>
-      </c>
-      <c r="H225">
-        <v>12</v>
       </c>
       <c r="I225" t="s">
         <v>57</v>
@@ -11912,16 +11912,16 @@
         <v>51</v>
       </c>
       <c r="E226">
+        <v>4</v>
+      </c>
+      <c r="F226">
         <v>5</v>
       </c>
-      <c r="F226">
+      <c r="G226">
         <v>1</v>
       </c>
-      <c r="G226">
+      <c r="H226">
         <v>7</v>
-      </c>
-      <c r="H226">
-        <v>4</v>
       </c>
       <c r="I226" t="s">
         <v>57</v>
@@ -11947,16 +11947,16 @@
         <v>51</v>
       </c>
       <c r="E227">
+        <v>9</v>
+      </c>
+      <c r="F227">
         <v>7</v>
       </c>
-      <c r="F227">
+      <c r="G227">
         <v>6</v>
       </c>
-      <c r="G227">
+      <c r="H227">
         <v>10</v>
-      </c>
-      <c r="H227">
-        <v>9</v>
       </c>
       <c r="I227" t="s">
         <v>57</v>
@@ -11982,16 +11982,16 @@
         <v>51</v>
       </c>
       <c r="E228">
+        <v>11</v>
+      </c>
+      <c r="F228">
         <v>0</v>
       </c>
-      <c r="F228">
+      <c r="G228">
         <v>6</v>
       </c>
-      <c r="G228">
+      <c r="H228">
         <v>10</v>
-      </c>
-      <c r="H228">
-        <v>11</v>
       </c>
       <c r="I228" t="s">
         <v>57</v>
@@ -12017,16 +12017,16 @@
         <v>51</v>
       </c>
       <c r="E229">
+        <v>11</v>
+      </c>
+      <c r="F229">
         <v>2</v>
       </c>
-      <c r="F229">
+      <c r="G229">
         <v>10</v>
       </c>
-      <c r="G229">
+      <c r="H229">
         <v>5</v>
-      </c>
-      <c r="H229">
-        <v>11</v>
       </c>
       <c r="I229" t="s">
         <v>57</v>
@@ -12052,16 +12052,16 @@
         <v>51</v>
       </c>
       <c r="E230">
+        <v>9</v>
+      </c>
+      <c r="F230">
         <v>8</v>
       </c>
-      <c r="F230">
+      <c r="G230">
         <v>5</v>
       </c>
-      <c r="G230">
+      <c r="H230">
         <v>7</v>
-      </c>
-      <c r="H230">
-        <v>9</v>
       </c>
       <c r="I230" t="s">
         <v>57</v>
@@ -12087,16 +12087,16 @@
         <v>51</v>
       </c>
       <c r="E231">
+        <v>10</v>
+      </c>
+      <c r="F231">
         <v>9</v>
-      </c>
-      <c r="F231">
-        <v>6</v>
       </c>
       <c r="G231">
         <v>6</v>
       </c>
       <c r="H231">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I231" t="s">
         <v>57</v>
@@ -12122,16 +12122,16 @@
         <v>52</v>
       </c>
       <c r="E232">
+        <v>12</v>
+      </c>
+      <c r="F232">
         <v>9</v>
       </c>
-      <c r="F232">
+      <c r="G232">
         <v>10</v>
       </c>
-      <c r="G232">
+      <c r="H232">
         <v>7</v>
-      </c>
-      <c r="H232">
-        <v>12</v>
       </c>
       <c r="I232" t="s">
         <v>57</v>
@@ -12157,16 +12157,16 @@
         <v>52</v>
       </c>
       <c r="E233">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F233">
         <v>5</v>
       </c>
       <c r="G233">
+        <v>5</v>
+      </c>
+      <c r="H233">
         <v>9</v>
-      </c>
-      <c r="H233">
-        <v>11</v>
       </c>
       <c r="I233" t="s">
         <v>57</v>
@@ -12192,16 +12192,16 @@
         <v>52</v>
       </c>
       <c r="E234">
+        <v>4</v>
+      </c>
+      <c r="F234">
         <v>0</v>
       </c>
-      <c r="F234">
+      <c r="G234">
         <v>6</v>
       </c>
-      <c r="G234">
+      <c r="H234">
         <v>3</v>
-      </c>
-      <c r="H234">
-        <v>4</v>
       </c>
       <c r="I234" t="s">
         <v>57</v>
@@ -12227,16 +12227,16 @@
         <v>52</v>
       </c>
       <c r="E235">
+        <v>5</v>
+      </c>
+      <c r="F235">
         <v>10</v>
       </c>
-      <c r="F235">
+      <c r="G235">
         <v>9</v>
       </c>
-      <c r="G235">
+      <c r="H235">
         <v>12</v>
-      </c>
-      <c r="H235">
-        <v>5</v>
       </c>
       <c r="I235" t="s">
         <v>57</v>
@@ -12262,16 +12262,16 @@
         <v>52</v>
       </c>
       <c r="E236">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F236">
         <v>3</v>
       </c>
       <c r="G236">
+        <v>3</v>
+      </c>
+      <c r="H236">
         <v>4</v>
-      </c>
-      <c r="H236">
-        <v>5</v>
       </c>
       <c r="I236" t="s">
         <v>57</v>
@@ -12297,16 +12297,16 @@
         <v>52</v>
       </c>
       <c r="E237">
+        <v>8</v>
+      </c>
+      <c r="F237">
         <v>10</v>
       </c>
-      <c r="F237">
+      <c r="G237">
         <v>3</v>
       </c>
-      <c r="G237">
+      <c r="H237">
         <v>7</v>
-      </c>
-      <c r="H237">
-        <v>8</v>
       </c>
       <c r="I237" t="s">
         <v>57</v>
@@ -12332,16 +12332,16 @@
         <v>52</v>
       </c>
       <c r="E238">
+        <v>8</v>
+      </c>
+      <c r="F238">
         <v>4</v>
       </c>
-      <c r="F238">
+      <c r="G238">
         <v>8</v>
       </c>
-      <c r="G238">
+      <c r="H238">
         <v>11</v>
-      </c>
-      <c r="H238">
-        <v>8</v>
       </c>
       <c r="I238" t="s">
         <v>57</v>
@@ -12367,16 +12367,16 @@
         <v>51</v>
       </c>
       <c r="E239">
+        <v>4</v>
+      </c>
+      <c r="F239">
         <v>3</v>
       </c>
-      <c r="F239">
+      <c r="G239">
         <v>10</v>
       </c>
-      <c r="G239">
+      <c r="H239">
         <v>6</v>
-      </c>
-      <c r="H239">
-        <v>4</v>
       </c>
       <c r="I239" t="s">
         <v>57</v>
@@ -12402,16 +12402,16 @@
         <v>52</v>
       </c>
       <c r="E240">
+        <v>5</v>
+      </c>
+      <c r="F240">
         <v>6</v>
       </c>
-      <c r="F240">
+      <c r="G240">
         <v>2</v>
       </c>
-      <c r="G240">
+      <c r="H240">
         <v>12</v>
-      </c>
-      <c r="H240">
-        <v>5</v>
       </c>
       <c r="I240" t="s">
         <v>57</v>
@@ -12437,13 +12437,13 @@
         <v>52</v>
       </c>
       <c r="E241">
+        <v>6</v>
+      </c>
+      <c r="F241">
         <v>5</v>
       </c>
-      <c r="F241">
+      <c r="G241">
         <v>10</v>
-      </c>
-      <c r="G241">
-        <v>6</v>
       </c>
       <c r="H241">
         <v>6</v>
@@ -12472,16 +12472,16 @@
         <v>52</v>
       </c>
       <c r="E242">
+        <v>5</v>
+      </c>
+      <c r="F242">
         <v>10</v>
       </c>
-      <c r="F242">
+      <c r="G242">
         <v>11</v>
       </c>
-      <c r="G242">
+      <c r="H242">
         <v>13</v>
-      </c>
-      <c r="H242">
-        <v>5</v>
       </c>
       <c r="I242" t="s">
         <v>57</v>
@@ -12510,13 +12510,13 @@
         <v>4</v>
       </c>
       <c r="F243">
+        <v>4</v>
+      </c>
+      <c r="G243">
         <v>9</v>
       </c>
-      <c r="G243">
+      <c r="H243">
         <v>12</v>
-      </c>
-      <c r="H243">
-        <v>4</v>
       </c>
       <c r="I243" t="s">
         <v>57</v>
@@ -12542,16 +12542,16 @@
         <v>52</v>
       </c>
       <c r="E244">
+        <v>4</v>
+      </c>
+      <c r="F244">
         <v>7</v>
       </c>
-      <c r="F244">
+      <c r="G244">
         <v>5</v>
       </c>
-      <c r="G244">
+      <c r="H244">
         <v>8</v>
-      </c>
-      <c r="H244">
-        <v>4</v>
       </c>
       <c r="I244" t="s">
         <v>57</v>
@@ -12577,16 +12577,16 @@
         <v>52</v>
       </c>
       <c r="E245">
+        <v>8</v>
+      </c>
+      <c r="F245">
         <v>3</v>
       </c>
-      <c r="F245">
+      <c r="G245">
         <v>7</v>
       </c>
-      <c r="G245">
+      <c r="H245">
         <v>3</v>
-      </c>
-      <c r="H245">
-        <v>8</v>
       </c>
       <c r="I245" t="s">
         <v>57</v>
@@ -12612,16 +12612,16 @@
         <v>52</v>
       </c>
       <c r="E246">
+        <v>5</v>
+      </c>
+      <c r="F246">
         <v>11</v>
       </c>
-      <c r="F246">
+      <c r="G246">
         <v>8</v>
       </c>
-      <c r="G246">
+      <c r="H246">
         <v>6</v>
-      </c>
-      <c r="H246">
-        <v>5</v>
       </c>
       <c r="I246" t="s">
         <v>57</v>
@@ -12647,16 +12647,16 @@
         <v>52</v>
       </c>
       <c r="E247">
+        <v>4</v>
+      </c>
+      <c r="F247">
         <v>5</v>
       </c>
-      <c r="F247">
+      <c r="G247">
         <v>0</v>
       </c>
-      <c r="G247">
+      <c r="H247">
         <v>6</v>
-      </c>
-      <c r="H247">
-        <v>4</v>
       </c>
       <c r="I247" t="s">
         <v>57</v>
@@ -12682,16 +12682,16 @@
         <v>52</v>
       </c>
       <c r="E248">
+        <v>13</v>
+      </c>
+      <c r="F248">
         <v>7</v>
       </c>
-      <c r="F248">
+      <c r="G248">
         <v>1</v>
       </c>
-      <c r="G248">
+      <c r="H248">
         <v>10</v>
-      </c>
-      <c r="H248">
-        <v>13</v>
       </c>
       <c r="I248" t="s">
         <v>57</v>
@@ -12717,16 +12717,16 @@
         <v>52</v>
       </c>
       <c r="E249">
+        <v>8</v>
+      </c>
+      <c r="F249">
         <v>7</v>
       </c>
-      <c r="F249">
+      <c r="G249">
         <v>10</v>
       </c>
-      <c r="G249">
+      <c r="H249">
         <v>4</v>
-      </c>
-      <c r="H249">
-        <v>8</v>
       </c>
       <c r="I249" t="s">
         <v>57</v>
@@ -12752,16 +12752,16 @@
         <v>52</v>
       </c>
       <c r="E250">
+        <v>6</v>
+      </c>
+      <c r="F250">
         <v>8</v>
       </c>
-      <c r="F250">
+      <c r="G250">
         <v>10</v>
       </c>
-      <c r="G250">
+      <c r="H250">
         <v>2</v>
-      </c>
-      <c r="H250">
-        <v>6</v>
       </c>
       <c r="I250" t="s">
         <v>57</v>
@@ -12793,10 +12793,10 @@
         <v>4</v>
       </c>
       <c r="G251">
+        <v>4</v>
+      </c>
+      <c r="H251">
         <v>5</v>
-      </c>
-      <c r="H251">
-        <v>4</v>
       </c>
       <c r="I251" t="s">
         <v>57</v>
@@ -12822,16 +12822,16 @@
         <v>52</v>
       </c>
       <c r="E252">
+        <v>7</v>
+      </c>
+      <c r="F252">
         <v>2</v>
       </c>
-      <c r="F252">
+      <c r="G252">
         <v>9</v>
       </c>
-      <c r="G252">
+      <c r="H252">
         <v>11</v>
-      </c>
-      <c r="H252">
-        <v>7</v>
       </c>
       <c r="I252" t="s">
         <v>57</v>
@@ -12857,16 +12857,16 @@
         <v>52</v>
       </c>
       <c r="E253">
+        <v>7</v>
+      </c>
+      <c r="F253">
         <v>6</v>
       </c>
-      <c r="F253">
+      <c r="G253">
         <v>7</v>
       </c>
-      <c r="G253">
+      <c r="H253">
         <v>11</v>
-      </c>
-      <c r="H253">
-        <v>7</v>
       </c>
       <c r="I253" t="s">
         <v>57</v>
@@ -12892,13 +12892,13 @@
         <v>52</v>
       </c>
       <c r="E254">
+        <v>7</v>
+      </c>
+      <c r="F254">
         <v>10</v>
       </c>
-      <c r="F254">
+      <c r="G254">
         <v>2</v>
-      </c>
-      <c r="G254">
-        <v>7</v>
       </c>
       <c r="H254">
         <v>7</v>
@@ -12927,16 +12927,16 @@
         <v>52</v>
       </c>
       <c r="E255">
+        <v>2</v>
+      </c>
+      <c r="F255">
         <v>5</v>
       </c>
-      <c r="F255">
+      <c r="G255">
         <v>4</v>
       </c>
-      <c r="G255">
+      <c r="H255">
         <v>8</v>
-      </c>
-      <c r="H255">
-        <v>2</v>
       </c>
       <c r="I255" t="s">
         <v>57</v>
@@ -12968,10 +12968,10 @@
         <v>10</v>
       </c>
       <c r="G256">
+        <v>10</v>
+      </c>
+      <c r="H256">
         <v>5</v>
-      </c>
-      <c r="H256">
-        <v>10</v>
       </c>
       <c r="I256" t="s">
         <v>57</v>
@@ -12997,16 +12997,16 @@
         <v>52</v>
       </c>
       <c r="E257">
+        <v>4</v>
+      </c>
+      <c r="F257">
         <v>7</v>
-      </c>
-      <c r="F257">
-        <v>10</v>
       </c>
       <c r="G257">
         <v>10</v>
       </c>
       <c r="H257">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I257" t="s">
         <v>57</v>
@@ -13032,16 +13032,16 @@
         <v>52</v>
       </c>
       <c r="E258">
+        <v>5</v>
+      </c>
+      <c r="F258">
         <v>6</v>
       </c>
-      <c r="F258">
+      <c r="G258">
         <v>10</v>
       </c>
-      <c r="G258">
+      <c r="H258">
         <v>7</v>
-      </c>
-      <c r="H258">
-        <v>5</v>
       </c>
       <c r="I258" t="s">
         <v>57</v>
@@ -13067,16 +13067,16 @@
         <v>52</v>
       </c>
       <c r="E259">
+        <v>7</v>
+      </c>
+      <c r="F259">
         <v>8</v>
       </c>
-      <c r="F259">
+      <c r="G259">
         <v>7</v>
       </c>
-      <c r="G259">
+      <c r="H259">
         <v>9</v>
-      </c>
-      <c r="H259">
-        <v>7</v>
       </c>
       <c r="I259" t="s">
         <v>57</v>
@@ -13102,16 +13102,16 @@
         <v>52</v>
       </c>
       <c r="E260">
+        <v>4</v>
+      </c>
+      <c r="F260">
         <v>3</v>
       </c>
-      <c r="F260">
+      <c r="G260">
         <v>5</v>
       </c>
-      <c r="G260">
+      <c r="H260">
         <v>10</v>
-      </c>
-      <c r="H260">
-        <v>4</v>
       </c>
       <c r="I260" t="s">
         <v>58</v>
@@ -13137,16 +13137,16 @@
         <v>52</v>
       </c>
       <c r="E261">
+        <v>5</v>
+      </c>
+      <c r="F261">
         <v>7</v>
       </c>
-      <c r="F261">
+      <c r="G261">
         <v>5</v>
       </c>
-      <c r="G261">
+      <c r="H261">
         <v>13</v>
-      </c>
-      <c r="H261">
-        <v>5</v>
       </c>
       <c r="I261" t="s">
         <v>57</v>
@@ -13172,16 +13172,16 @@
         <v>52</v>
       </c>
       <c r="E262">
+        <v>13</v>
+      </c>
+      <c r="F262">
         <v>6</v>
       </c>
-      <c r="F262">
+      <c r="G262">
         <v>4</v>
       </c>
-      <c r="G262">
+      <c r="H262">
         <v>10</v>
-      </c>
-      <c r="H262">
-        <v>13</v>
       </c>
       <c r="I262" t="s">
         <v>57</v>
@@ -13207,16 +13207,16 @@
         <v>52</v>
       </c>
       <c r="E263">
+        <v>10</v>
+      </c>
+      <c r="F263">
         <v>7</v>
       </c>
-      <c r="F263">
+      <c r="G263">
         <v>6</v>
       </c>
-      <c r="G263">
+      <c r="H263">
         <v>8</v>
-      </c>
-      <c r="H263">
-        <v>10</v>
       </c>
       <c r="I263" t="s">
         <v>57</v>
@@ -13242,16 +13242,16 @@
         <v>52</v>
       </c>
       <c r="E264">
+        <v>7</v>
+      </c>
+      <c r="F264">
         <v>3</v>
       </c>
-      <c r="F264">
+      <c r="G264">
         <v>7</v>
       </c>
-      <c r="G264">
+      <c r="H264">
         <v>6</v>
-      </c>
-      <c r="H264">
-        <v>7</v>
       </c>
       <c r="I264" t="s">
         <v>57</v>
@@ -13277,16 +13277,16 @@
         <v>52</v>
       </c>
       <c r="E265">
+        <v>12</v>
+      </c>
+      <c r="F265">
         <v>6</v>
       </c>
-      <c r="F265">
+      <c r="G265">
         <v>0</v>
       </c>
-      <c r="G265">
+      <c r="H265">
         <v>6</v>
-      </c>
-      <c r="H265">
-        <v>12</v>
       </c>
       <c r="I265" t="s">
         <v>57</v>
@@ -13312,16 +13312,16 @@
         <v>52</v>
       </c>
       <c r="E266">
+        <v>10</v>
+      </c>
+      <c r="F266">
         <v>8</v>
       </c>
-      <c r="F266">
+      <c r="G266">
         <v>5</v>
       </c>
-      <c r="G266">
+      <c r="H266">
         <v>12</v>
-      </c>
-      <c r="H266">
-        <v>10</v>
       </c>
       <c r="I266" t="s">
         <v>57</v>
@@ -13347,16 +13347,16 @@
         <v>52</v>
       </c>
       <c r="E267">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F267">
         <v>4</v>
       </c>
       <c r="G267">
+        <v>4</v>
+      </c>
+      <c r="H267">
         <v>11</v>
-      </c>
-      <c r="H267">
-        <v>8</v>
       </c>
       <c r="I267" t="s">
         <v>57</v>
@@ -13382,16 +13382,16 @@
         <v>52</v>
       </c>
       <c r="E268">
+        <v>6</v>
+      </c>
+      <c r="F268">
         <v>5</v>
       </c>
-      <c r="F268">
+      <c r="G268">
         <v>7</v>
       </c>
-      <c r="G268">
+      <c r="H268">
         <v>9</v>
-      </c>
-      <c r="H268">
-        <v>6</v>
       </c>
       <c r="I268" t="s">
         <v>57</v>
@@ -13417,13 +13417,13 @@
         <v>52</v>
       </c>
       <c r="E269">
+        <v>11</v>
+      </c>
+      <c r="F269">
         <v>8</v>
       </c>
-      <c r="F269">
+      <c r="G269">
         <v>2</v>
-      </c>
-      <c r="G269">
-        <v>11</v>
       </c>
       <c r="H269">
         <v>11</v>
@@ -13452,16 +13452,16 @@
         <v>52</v>
       </c>
       <c r="E270">
+        <v>5</v>
+      </c>
+      <c r="F270">
         <v>11</v>
       </c>
-      <c r="F270">
+      <c r="G270">
         <v>0</v>
       </c>
-      <c r="G270">
+      <c r="H270">
         <v>8</v>
-      </c>
-      <c r="H270">
-        <v>5</v>
       </c>
       <c r="I270" t="s">
         <v>57</v>
@@ -13487,16 +13487,16 @@
         <v>51</v>
       </c>
       <c r="E271">
+        <v>3</v>
+      </c>
+      <c r="F271">
         <v>8</v>
       </c>
-      <c r="F271">
+      <c r="G271">
         <v>6</v>
       </c>
-      <c r="G271">
+      <c r="H271">
         <v>2</v>
-      </c>
-      <c r="H271">
-        <v>3</v>
       </c>
       <c r="I271" t="s">
         <v>57</v>
@@ -13522,7 +13522,7 @@
         <v>52</v>
       </c>
       <c r="E272">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F272">
         <v>7</v>
@@ -13531,7 +13531,7 @@
         <v>7</v>
       </c>
       <c r="H272">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I272" t="s">
         <v>57</v>
@@ -13557,16 +13557,16 @@
         <v>52</v>
       </c>
       <c r="E273">
+        <v>9</v>
+      </c>
+      <c r="F273">
         <v>10</v>
       </c>
-      <c r="F273">
+      <c r="G273">
         <v>11</v>
       </c>
-      <c r="G273">
+      <c r="H273">
         <v>7</v>
-      </c>
-      <c r="H273">
-        <v>9</v>
       </c>
       <c r="I273" t="s">
         <v>57</v>
@@ -13592,16 +13592,16 @@
         <v>52</v>
       </c>
       <c r="E274">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F274">
         <v>2</v>
       </c>
       <c r="G274">
+        <v>2</v>
+      </c>
+      <c r="H274">
         <v>6</v>
-      </c>
-      <c r="H274">
-        <v>7</v>
       </c>
       <c r="I274" t="s">
         <v>58</v>
@@ -13627,16 +13627,16 @@
         <v>52</v>
       </c>
       <c r="E275">
+        <v>9</v>
+      </c>
+      <c r="F275">
         <v>11</v>
       </c>
-      <c r="F275">
+      <c r="G275">
         <v>8</v>
       </c>
-      <c r="G275">
+      <c r="H275">
         <v>5</v>
-      </c>
-      <c r="H275">
-        <v>9</v>
       </c>
       <c r="I275" t="s">
         <v>57</v>
@@ -13662,16 +13662,16 @@
         <v>52</v>
       </c>
       <c r="E276">
+        <v>6</v>
+      </c>
+      <c r="F276">
         <v>7</v>
       </c>
-      <c r="F276">
+      <c r="G276">
         <v>2</v>
       </c>
-      <c r="G276">
+      <c r="H276">
         <v>7</v>
-      </c>
-      <c r="H276">
-        <v>6</v>
       </c>
       <c r="I276" t="s">
         <v>57</v>
@@ -13697,16 +13697,16 @@
         <v>52</v>
       </c>
       <c r="E277">
+        <v>10</v>
+      </c>
+      <c r="F277">
         <v>0</v>
       </c>
-      <c r="F277">
+      <c r="G277">
         <v>5</v>
       </c>
-      <c r="G277">
+      <c r="H277">
         <v>4</v>
-      </c>
-      <c r="H277">
-        <v>10</v>
       </c>
       <c r="I277" t="s">
         <v>57</v>
@@ -13732,16 +13732,16 @@
         <v>52</v>
       </c>
       <c r="E278">
+        <v>8</v>
+      </c>
+      <c r="F278">
         <v>7</v>
-      </c>
-      <c r="F278">
-        <v>6</v>
       </c>
       <c r="G278">
         <v>6</v>
       </c>
       <c r="H278">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I278" t="s">
         <v>57</v>
@@ -13767,16 +13767,16 @@
         <v>52</v>
       </c>
       <c r="E279">
+        <v>7</v>
+      </c>
+      <c r="F279">
         <v>1</v>
       </c>
-      <c r="F279">
+      <c r="G279">
         <v>11</v>
       </c>
-      <c r="G279">
+      <c r="H279">
         <v>12</v>
-      </c>
-      <c r="H279">
-        <v>7</v>
       </c>
       <c r="I279" t="s">
         <v>57</v>
@@ -13802,16 +13802,16 @@
         <v>52</v>
       </c>
       <c r="E280">
+        <v>4</v>
+      </c>
+      <c r="F280">
         <v>11</v>
       </c>
-      <c r="F280">
+      <c r="G280">
         <v>2</v>
       </c>
-      <c r="G280">
+      <c r="H280">
         <v>11</v>
-      </c>
-      <c r="H280">
-        <v>4</v>
       </c>
       <c r="I280" t="s">
         <v>57</v>
@@ -13837,16 +13837,16 @@
         <v>52</v>
       </c>
       <c r="E281">
+        <v>2</v>
+      </c>
+      <c r="F281">
         <v>7</v>
       </c>
-      <c r="F281">
+      <c r="G281">
         <v>4</v>
       </c>
-      <c r="G281">
+      <c r="H281">
         <v>5</v>
-      </c>
-      <c r="H281">
-        <v>2</v>
       </c>
       <c r="I281" t="s">
         <v>57</v>
@@ -13872,16 +13872,16 @@
         <v>52</v>
       </c>
       <c r="E282">
+        <v>3</v>
+      </c>
+      <c r="F282">
         <v>4</v>
       </c>
-      <c r="F282">
+      <c r="G282">
         <v>11</v>
       </c>
-      <c r="G282">
+      <c r="H282">
         <v>5</v>
-      </c>
-      <c r="H282">
-        <v>3</v>
       </c>
       <c r="I282" t="s">
         <v>57</v>
@@ -13907,16 +13907,16 @@
         <v>52</v>
       </c>
       <c r="E283">
+        <v>10</v>
+      </c>
+      <c r="F283">
         <v>6</v>
       </c>
-      <c r="F283">
+      <c r="G283">
         <v>2</v>
       </c>
-      <c r="G283">
+      <c r="H283">
         <v>9</v>
-      </c>
-      <c r="H283">
-        <v>10</v>
       </c>
       <c r="I283" t="s">
         <v>57</v>
@@ -13942,16 +13942,16 @@
         <v>52</v>
       </c>
       <c r="E284">
+        <v>10</v>
+      </c>
+      <c r="F284">
         <v>6</v>
       </c>
-      <c r="F284">
+      <c r="G284">
         <v>10</v>
       </c>
-      <c r="G284">
+      <c r="H284">
         <v>5</v>
-      </c>
-      <c r="H284">
-        <v>10</v>
       </c>
       <c r="I284" t="s">
         <v>57</v>
@@ -13977,13 +13977,13 @@
         <v>52</v>
       </c>
       <c r="E285">
+        <v>6</v>
+      </c>
+      <c r="F285">
         <v>1</v>
       </c>
-      <c r="F285">
+      <c r="G285">
         <v>3</v>
-      </c>
-      <c r="G285">
-        <v>6</v>
       </c>
       <c r="H285">
         <v>6</v>
@@ -14012,16 +14012,16 @@
         <v>52</v>
       </c>
       <c r="E286">
+        <v>9</v>
+      </c>
+      <c r="F286">
         <v>5</v>
       </c>
-      <c r="F286">
+      <c r="G286">
         <v>11</v>
       </c>
-      <c r="G286">
+      <c r="H286">
         <v>10</v>
-      </c>
-      <c r="H286">
-        <v>9</v>
       </c>
       <c r="I286" t="s">
         <v>57</v>
@@ -14047,16 +14047,16 @@
         <v>52</v>
       </c>
       <c r="E287">
+        <v>10</v>
+      </c>
+      <c r="F287">
         <v>5</v>
-      </c>
-      <c r="F287">
-        <v>7</v>
       </c>
       <c r="G287">
         <v>7</v>
       </c>
       <c r="H287">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I287" t="s">
         <v>57</v>
@@ -14082,16 +14082,16 @@
         <v>52</v>
       </c>
       <c r="E288">
+        <v>2</v>
+      </c>
+      <c r="F288">
         <v>11</v>
       </c>
-      <c r="F288">
+      <c r="G288">
         <v>10</v>
       </c>
-      <c r="G288">
+      <c r="H288">
         <v>8</v>
-      </c>
-      <c r="H288">
-        <v>2</v>
       </c>
       <c r="I288" t="s">
         <v>57</v>
@@ -14117,16 +14117,16 @@
         <v>52</v>
       </c>
       <c r="E289">
+        <v>9</v>
+      </c>
+      <c r="F289">
         <v>10</v>
       </c>
-      <c r="F289">
+      <c r="G289">
         <v>8</v>
       </c>
-      <c r="G289">
+      <c r="H289">
         <v>6</v>
-      </c>
-      <c r="H289">
-        <v>9</v>
       </c>
       <c r="I289" t="s">
         <v>57</v>
@@ -14152,16 +14152,16 @@
         <v>52</v>
       </c>
       <c r="E290">
+        <v>9</v>
+      </c>
+      <c r="F290">
         <v>6</v>
       </c>
-      <c r="F290">
+      <c r="G290">
         <v>11</v>
       </c>
-      <c r="G290">
+      <c r="H290">
         <v>10</v>
-      </c>
-      <c r="H290">
-        <v>9</v>
       </c>
       <c r="I290" t="s">
         <v>57</v>
@@ -14187,16 +14187,16 @@
         <v>52</v>
       </c>
       <c r="E291">
+        <v>9</v>
+      </c>
+      <c r="F291">
         <v>7</v>
       </c>
-      <c r="F291">
+      <c r="G291">
         <v>4</v>
       </c>
-      <c r="G291">
+      <c r="H291">
         <v>6</v>
-      </c>
-      <c r="H291">
-        <v>9</v>
       </c>
       <c r="I291" t="s">
         <v>57</v>
@@ -14225,13 +14225,13 @@
         <v>8</v>
       </c>
       <c r="F292">
+        <v>8</v>
+      </c>
+      <c r="G292">
         <v>4</v>
       </c>
-      <c r="G292">
+      <c r="H292">
         <v>3</v>
-      </c>
-      <c r="H292">
-        <v>8</v>
       </c>
       <c r="I292" t="s">
         <v>57</v>
@@ -14257,16 +14257,16 @@
         <v>52</v>
       </c>
       <c r="E293">
+        <v>4</v>
+      </c>
+      <c r="F293">
         <v>8</v>
       </c>
-      <c r="F293">
+      <c r="G293">
         <v>0</v>
       </c>
-      <c r="G293">
+      <c r="H293">
         <v>10</v>
-      </c>
-      <c r="H293">
-        <v>4</v>
       </c>
       <c r="I293" t="s">
         <v>57</v>
@@ -14292,16 +14292,16 @@
         <v>52</v>
       </c>
       <c r="E294">
+        <v>9</v>
+      </c>
+      <c r="F294">
         <v>3</v>
       </c>
-      <c r="F294">
+      <c r="G294">
         <v>4</v>
       </c>
-      <c r="G294">
+      <c r="H294">
         <v>7</v>
-      </c>
-      <c r="H294">
-        <v>9</v>
       </c>
       <c r="I294" t="s">
         <v>58</v>
@@ -14327,16 +14327,16 @@
         <v>52</v>
       </c>
       <c r="E295">
+        <v>7</v>
+      </c>
+      <c r="F295">
         <v>10</v>
       </c>
-      <c r="F295">
+      <c r="G295">
         <v>3</v>
       </c>
-      <c r="G295">
+      <c r="H295">
         <v>13</v>
-      </c>
-      <c r="H295">
-        <v>7</v>
       </c>
       <c r="I295" t="s">
         <v>58</v>
@@ -14349,7 +14349,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
